--- a/DATA/Data (1).xlsx
+++ b/DATA/Data (1).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anjec\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Documentos\ProjectTomatodata\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6645C68B-4757-4F02-9F9D-A4EE5DD0BB36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A71E5-14DF-4431-93B4-24485098BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{7CB70C17-F37E-4A58-8897-3EF4BA12F333}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CB70C17-F37E-4A58-8897-3EF4BA12F333}"/>
   </bookViews>
   <sheets>
     <sheet name="P. infestans" sheetId="2" r:id="rId1"/>
@@ -255,7 +255,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -289,19 +289,6 @@
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -360,15 +347,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,17 +365,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -417,9 +404,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +444,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +550,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,7 +692,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -715,33 +702,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F04452-C513-4A27-B4F7-B1D1B780B34B}">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.28515625" customWidth="1"/>
+    <col min="1" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="21"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
       <c r="C2" s="4">
         <v>1</v>
       </c>
@@ -758,12 +749,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" s="10">
         <v>0</v>
@@ -781,12 +772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
@@ -804,12 +795,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" s="10">
         <v>0</v>
@@ -827,12 +818,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10">
         <v>0</v>
@@ -850,12 +841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>16</v>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -873,12 +864,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -896,12 +887,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
@@ -919,12 +910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10">
         <v>0</v>
@@ -942,12 +933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C11" s="10">
         <v>0</v>
@@ -965,12 +956,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -988,12 +979,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -1011,12 +1002,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="10">
         <v>0</v>
@@ -1034,12 +1025,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" s="10">
         <v>0</v>
@@ -1057,12 +1048,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C16" s="10">
         <v>0</v>
@@ -1080,12 +1071,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10">
         <v>7</v>
@@ -1103,12 +1094,12 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="10">
         <v>7</v>
@@ -1126,12 +1117,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" s="10">
         <v>0</v>
@@ -1149,12 +1140,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B20" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" s="10">
         <v>0</v>
@@ -1172,12 +1163,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B21" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1195,12 +1186,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1218,12 +1209,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -1241,12 +1232,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B24" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
         <v>13.33</v>
@@ -1264,12 +1255,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" s="7">
         <v>26.67</v>
@@ -1287,12 +1278,12 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B26" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -1310,13 +1301,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="3">
-        <v>5</v>
-      </c>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C27" s="7">
         <v>10</v>
       </c>
@@ -1334,10 +1319,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="1">
     <mergeCell ref="C1:G1"/>
-    <mergeCell ref="B1:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1347,16 +1330,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3FAEA6-6388-4E38-B4CE-5FEEC0EAA0FC}">
   <dimension ref="A1:AD77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="23" max="23" width="14.85546875" customWidth="1"/>
+    <col min="23" max="23" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -1379,29 +1362,29 @@
       <c r="Q1" s="28"/>
       <c r="R1" s="28"/>
       <c r="S1" s="28"/>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
       <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="31" t="s">
+      <c r="AB1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="31" t="s">
+      <c r="AC1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:30" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:30" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -1411,22 +1394,22 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="K2" s="1" t="s">
@@ -1438,22 +1421,22 @@
       <c r="M2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="25" t="s">
         <v>29</v>
       </c>
       <c r="O2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="P2" s="30" t="s">
+      <c r="P2" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="Q2" s="30" t="s">
+      <c r="Q2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="30" t="s">
+      <c r="R2" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="S2" s="30" t="s">
+      <c r="S2" s="24" t="s">
         <v>34</v>
       </c>
       <c r="U2" s="1" t="s">
@@ -1465,7 +1448,7 @@
       <c r="W2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="X2" s="20" t="s">
         <v>37</v>
       </c>
       <c r="Z2" s="2" t="s">
@@ -1484,11 +1467,11 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="21">
         <v>1</v>
       </c>
       <c r="C3" s="3">
@@ -1521,7 +1504,7 @@
       <c r="K3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="21">
         <v>1</v>
       </c>
       <c r="M3" s="3">
@@ -1549,10 +1532,10 @@
       <c r="U3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V3" s="24">
+      <c r="V3" s="21">
         <v>36</v>
       </c>
-      <c r="W3" s="24">
+      <c r="W3" s="21">
         <v>4673.7999999999993</v>
       </c>
       <c r="X3" s="8">
@@ -1575,11 +1558,11 @@
         <v>274</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
       <c r="C4" s="3">
@@ -1611,7 +1594,7 @@
       <c r="K4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="24">
+      <c r="L4" s="21">
         <v>2</v>
       </c>
       <c r="M4" s="3">
@@ -1639,10 +1622,10 @@
       <c r="U4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V4" s="24">
+      <c r="V4" s="21">
         <v>31</v>
       </c>
-      <c r="W4" s="24">
+      <c r="W4" s="21">
         <v>3681</v>
       </c>
       <c r="X4" s="8">
@@ -1665,11 +1648,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="21">
         <v>3</v>
       </c>
       <c r="C5" s="3">
@@ -1702,7 +1685,7 @@
       <c r="K5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L5" s="24">
+      <c r="L5" s="21">
         <v>3</v>
       </c>
       <c r="M5" s="3">
@@ -1730,10 +1713,10 @@
       <c r="U5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="24">
+      <c r="V5" s="21">
         <v>31</v>
       </c>
-      <c r="W5" s="24">
+      <c r="W5" s="21">
         <v>3465.9</v>
       </c>
       <c r="X5" s="8">
@@ -1756,11 +1739,11 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="21">
         <v>1</v>
       </c>
       <c r="C6" s="3">
@@ -1792,7 +1775,7 @@
       <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="24">
+      <c r="L6" s="21">
         <v>1</v>
       </c>
       <c r="M6" s="3">
@@ -1820,10 +1803,10 @@
       <c r="U6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="24">
+      <c r="V6" s="21">
         <v>26</v>
       </c>
-      <c r="W6" s="24">
+      <c r="W6" s="21">
         <v>3471.9216000000001</v>
       </c>
       <c r="X6" s="8">
@@ -1846,11 +1829,11 @@
         <v>363</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="21">
         <v>2</v>
       </c>
       <c r="C7" s="3">
@@ -1883,7 +1866,7 @@
       <c r="K7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L7" s="24">
+      <c r="L7" s="21">
         <v>2</v>
       </c>
       <c r="M7" s="3">
@@ -1911,10 +1894,10 @@
       <c r="U7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V7" s="24">
+      <c r="V7" s="21">
         <v>29</v>
       </c>
-      <c r="W7" s="24">
+      <c r="W7" s="21">
         <v>5434.6</v>
       </c>
       <c r="X7" s="8">
@@ -1937,11 +1920,11 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="24">
+      <c r="B8" s="21">
         <v>3</v>
       </c>
       <c r="C8" s="3">
@@ -1973,7 +1956,7 @@
       <c r="K8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
         <v>3</v>
       </c>
       <c r="M8" s="3">
@@ -2001,10 +1984,10 @@
       <c r="U8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="24">
+      <c r="V8" s="21">
         <v>34</v>
       </c>
-      <c r="W8" s="24">
+      <c r="W8" s="21">
         <v>4069.7686999999996</v>
       </c>
       <c r="X8" s="8">
@@ -2027,11 +2010,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="21">
         <v>1</v>
       </c>
       <c r="C9" s="3">
@@ -2064,7 +2047,7 @@
       <c r="K9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="24">
+      <c r="L9" s="21">
         <v>1</v>
       </c>
       <c r="M9" s="3">
@@ -2092,10 +2075,10 @@
       <c r="U9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="24">
+      <c r="V9" s="21">
         <v>35</v>
       </c>
-      <c r="W9" s="24">
+      <c r="W9" s="21">
         <v>4512.6899999999996</v>
       </c>
       <c r="X9" s="8">
@@ -2118,11 +2101,11 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="24">
+      <c r="B10" s="21">
         <v>2</v>
       </c>
       <c r="C10" s="3">
@@ -2154,7 +2137,7 @@
       <c r="K10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L10" s="24">
+      <c r="L10" s="21">
         <v>2</v>
       </c>
       <c r="M10" s="3">
@@ -2182,10 +2165,10 @@
       <c r="U10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V10" s="21">
         <v>38</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W10" s="21">
         <v>4998.8000000000011</v>
       </c>
       <c r="X10" s="8">
@@ -2208,11 +2191,11 @@
         <v>260</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="21">
         <v>3</v>
       </c>
       <c r="C11" s="3">
@@ -2245,7 +2228,7 @@
       <c r="K11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="21">
         <v>3</v>
       </c>
       <c r="M11" s="3">
@@ -2273,10 +2256,10 @@
       <c r="U11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V11" s="24">
+      <c r="V11" s="21">
         <v>34</v>
       </c>
-      <c r="W11" s="24">
+      <c r="W11" s="21">
         <v>4431</v>
       </c>
       <c r="X11" s="8">
@@ -2299,11 +2282,11 @@
         <v>398</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="21">
         <v>1</v>
       </c>
       <c r="C12" s="3">
@@ -2336,7 +2319,7 @@
       <c r="K12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="21">
         <v>1</v>
       </c>
       <c r="M12" s="3">
@@ -2364,10 +2347,10 @@
       <c r="U12" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V12" s="24">
+      <c r="V12" s="21">
         <v>29</v>
       </c>
-      <c r="W12" s="24">
+      <c r="W12" s="21">
         <v>3885.3</v>
       </c>
       <c r="X12" s="8">
@@ -2390,11 +2373,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="21">
         <v>2</v>
       </c>
       <c r="C13" s="3">
@@ -2427,7 +2410,7 @@
       <c r="K13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="21">
         <v>2</v>
       </c>
       <c r="M13" s="3">
@@ -2455,10 +2438,10 @@
       <c r="U13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="24">
+      <c r="V13" s="21">
         <v>33</v>
       </c>
-      <c r="W13" s="24">
+      <c r="W13" s="21">
         <v>3925.6</v>
       </c>
       <c r="X13" s="8">
@@ -2481,11 +2464,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="21">
         <v>3</v>
       </c>
       <c r="C14" s="3">
@@ -2517,7 +2500,7 @@
       <c r="K14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="24">
+      <c r="L14" s="21">
         <v>3</v>
       </c>
       <c r="M14" s="3">
@@ -2545,10 +2528,10 @@
       <c r="U14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V14" s="24">
+      <c r="V14" s="21">
         <v>27</v>
       </c>
-      <c r="W14" s="24">
+      <c r="W14" s="21">
         <v>3062.1</v>
       </c>
       <c r="X14" s="8">
@@ -2571,11 +2554,11 @@
         <v>247</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="24">
+      <c r="B15" s="21">
         <v>1</v>
       </c>
       <c r="C15" s="3">
@@ -2608,7 +2591,7 @@
       <c r="K15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="24">
+      <c r="L15" s="21">
         <v>1</v>
       </c>
       <c r="M15" s="3">
@@ -2636,10 +2619,10 @@
       <c r="U15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="24">
+      <c r="V15" s="21">
         <v>29</v>
       </c>
-      <c r="W15" s="24">
+      <c r="W15" s="21">
         <v>4017.7999999999997</v>
       </c>
       <c r="X15" s="8">
@@ -2662,11 +2645,11 @@
         <v>457</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>2</v>
       </c>
       <c r="C16" s="3">
@@ -2699,7 +2682,7 @@
       <c r="K16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L16" s="24">
+      <c r="L16" s="21">
         <v>2</v>
       </c>
       <c r="M16" s="3">
@@ -2727,10 +2710,10 @@
       <c r="U16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="24">
+      <c r="V16" s="21">
         <v>35</v>
       </c>
-      <c r="W16" s="24">
+      <c r="W16" s="21">
         <v>4425.3999999999996</v>
       </c>
       <c r="X16" s="8">
@@ -2753,11 +2736,11 @@
         <v>282</v>
       </c>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>3</v>
       </c>
       <c r="C17" s="3">
@@ -2791,7 +2774,7 @@
       <c r="K17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L17" s="24">
+      <c r="L17" s="21">
         <v>3</v>
       </c>
       <c r="M17" s="3">
@@ -2819,10 +2802,10 @@
       <c r="U17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="24">
+      <c r="V17" s="21">
         <v>42</v>
       </c>
-      <c r="W17" s="24">
+      <c r="W17" s="21">
         <v>5127.46</v>
       </c>
       <c r="X17" s="8">
@@ -2845,11 +2828,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>1</v>
       </c>
       <c r="C18" s="3">
@@ -2883,7 +2866,7 @@
       <c r="K18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L18" s="24">
+      <c r="L18" s="21">
         <v>1</v>
       </c>
       <c r="M18" s="3">
@@ -2911,10 +2894,10 @@
       <c r="U18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V18" s="24">
+      <c r="V18" s="21">
         <v>47</v>
       </c>
-      <c r="W18" s="24">
+      <c r="W18" s="21">
         <v>5900.1</v>
       </c>
       <c r="X18" s="8">
@@ -2937,11 +2920,11 @@
         <v>221</v>
       </c>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>2</v>
       </c>
       <c r="C19" s="3">
@@ -2975,7 +2958,7 @@
       <c r="K19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L19" s="24">
+      <c r="L19" s="21">
         <v>2</v>
       </c>
       <c r="M19" s="3">
@@ -3003,10 +2986,10 @@
       <c r="U19" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V19" s="24">
+      <c r="V19" s="21">
         <v>35</v>
       </c>
-      <c r="W19" s="24">
+      <c r="W19" s="21">
         <v>4811.9400000000005</v>
       </c>
       <c r="X19" s="8">
@@ -3029,11 +3012,11 @@
         <v>325</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>3</v>
       </c>
       <c r="C20" s="3">
@@ -3066,7 +3049,7 @@
       <c r="K20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L20" s="24">
+      <c r="L20" s="21">
         <v>3</v>
       </c>
       <c r="M20" s="3">
@@ -3094,10 +3077,10 @@
       <c r="U20" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V20" s="24">
+      <c r="V20" s="21">
         <v>29</v>
       </c>
-      <c r="W20" s="24">
+      <c r="W20" s="21">
         <v>4329.3</v>
       </c>
       <c r="X20" s="8">
@@ -3120,11 +3103,11 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>1</v>
       </c>
       <c r="C21" s="3">
@@ -3157,7 +3140,7 @@
       <c r="K21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L21" s="24">
+      <c r="L21" s="21">
         <v>1</v>
       </c>
       <c r="M21" s="3">
@@ -3185,10 +3168,10 @@
       <c r="U21" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V21" s="24">
+      <c r="V21" s="21">
         <v>31</v>
       </c>
-      <c r="W21" s="24">
+      <c r="W21" s="21">
         <v>4505.5999999999995</v>
       </c>
       <c r="X21" s="8">
@@ -3211,11 +3194,11 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="21">
         <v>2</v>
       </c>
       <c r="C22" s="3">
@@ -3248,7 +3231,7 @@
       <c r="K22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L22" s="24">
+      <c r="L22" s="21">
         <v>2</v>
       </c>
       <c r="M22" s="3">
@@ -3276,10 +3259,10 @@
       <c r="U22" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="21">
         <v>35</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="21">
         <v>4934.8999999999996</v>
       </c>
       <c r="X22" s="8">
@@ -3302,11 +3285,11 @@
         <v>251</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <v>3</v>
       </c>
       <c r="C23" s="3">
@@ -3340,7 +3323,7 @@
       <c r="K23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="24">
+      <c r="L23" s="21">
         <v>3</v>
       </c>
       <c r="M23" s="3">
@@ -3368,10 +3351,10 @@
       <c r="U23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V23" s="24">
+      <c r="V23" s="21">
         <v>42</v>
       </c>
-      <c r="W23" s="24">
+      <c r="W23" s="21">
         <v>5939.0999999999995</v>
       </c>
       <c r="X23" s="8">
@@ -3394,11 +3377,11 @@
         <v>237</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="24">
+      <c r="B24" s="21">
         <v>1</v>
       </c>
       <c r="C24" s="3">
@@ -3431,7 +3414,7 @@
       <c r="K24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="21">
         <v>1</v>
       </c>
       <c r="M24" s="3">
@@ -3459,10 +3442,10 @@
       <c r="U24" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V24" s="24">
+      <c r="V24" s="21">
         <v>34</v>
       </c>
-      <c r="W24" s="24">
+      <c r="W24" s="21">
         <v>4579.8999999999996</v>
       </c>
       <c r="X24" s="8">
@@ -3485,11 +3468,11 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="21">
         <v>2</v>
       </c>
       <c r="C25" s="3">
@@ -3523,7 +3506,7 @@
       <c r="K25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L25" s="24">
+      <c r="L25" s="21">
         <v>2</v>
       </c>
       <c r="M25" s="3">
@@ -3551,10 +3534,10 @@
       <c r="U25" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V25" s="24">
+      <c r="V25" s="21">
         <v>40</v>
       </c>
-      <c r="W25" s="24">
+      <c r="W25" s="21">
         <v>5403.9000000000005</v>
       </c>
       <c r="X25" s="8">
@@ -3577,11 +3560,11 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="24">
+      <c r="B26" s="21">
         <v>3</v>
       </c>
       <c r="C26" s="3">
@@ -3614,7 +3597,7 @@
       <c r="K26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L26" s="24">
+      <c r="L26" s="21">
         <v>3</v>
       </c>
       <c r="M26" s="3">
@@ -3642,10 +3625,10 @@
       <c r="U26" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V26" s="24">
+      <c r="V26" s="21">
         <v>36</v>
       </c>
-      <c r="W26" s="24">
+      <c r="W26" s="21">
         <v>6352.7000000000007</v>
       </c>
       <c r="X26" s="8">
@@ -3668,11 +3651,11 @@
         <v>424</v>
       </c>
     </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="21">
         <v>1</v>
       </c>
       <c r="C27" s="3">
@@ -3705,7 +3688,7 @@
       <c r="K27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L27" s="24">
+      <c r="L27" s="21">
         <v>1</v>
       </c>
       <c r="M27" s="3">
@@ -3733,10 +3716,10 @@
       <c r="U27" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V27" s="24">
+      <c r="V27" s="21">
         <v>35</v>
       </c>
-      <c r="W27" s="24">
+      <c r="W27" s="21">
         <v>5134.3999999999996</v>
       </c>
       <c r="X27" s="8">
@@ -3744,11 +3727,11 @@
         <v>146.69714285714284</v>
       </c>
     </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="24">
+      <c r="B28" s="21">
         <v>2</v>
       </c>
       <c r="C28" s="3">
@@ -3782,7 +3765,7 @@
       <c r="K28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="21">
         <v>2</v>
       </c>
       <c r="M28" s="3">
@@ -3810,10 +3793,10 @@
       <c r="U28" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V28" s="24">
+      <c r="V28" s="21">
         <v>46</v>
       </c>
-      <c r="W28" s="24">
+      <c r="W28" s="21">
         <v>6231.2</v>
       </c>
       <c r="X28" s="8">
@@ -3821,11 +3804,11 @@
         <v>135.46086956521739</v>
       </c>
     </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="21">
         <v>3</v>
       </c>
       <c r="C29" s="3">
@@ -3859,7 +3842,7 @@
       <c r="K29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="24">
+      <c r="L29" s="21">
         <v>3</v>
       </c>
       <c r="M29" s="3">
@@ -3887,10 +3870,10 @@
       <c r="U29" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V29" s="24">
+      <c r="V29" s="21">
         <v>41</v>
       </c>
-      <c r="W29" s="24">
+      <c r="W29" s="21">
         <v>5619.9135200000001</v>
       </c>
       <c r="X29" s="8">
@@ -3898,11 +3881,11 @@
         <v>137.07106146341462</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="24">
+      <c r="B30" s="21">
         <v>1</v>
       </c>
       <c r="C30" s="3">
@@ -3936,7 +3919,7 @@
       <c r="K30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L30" s="24">
+      <c r="L30" s="21">
         <v>1</v>
       </c>
       <c r="M30" s="3">
@@ -3964,10 +3947,10 @@
       <c r="U30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V30" s="24">
+      <c r="V30" s="21">
         <v>35</v>
       </c>
-      <c r="W30" s="24">
+      <c r="W30" s="21">
         <v>5449.3</v>
       </c>
       <c r="X30" s="8">
@@ -3975,11 +3958,11 @@
         <v>155.69428571428571</v>
       </c>
     </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="24">
+      <c r="B31" s="21">
         <v>2</v>
       </c>
       <c r="C31" s="3">
@@ -4013,7 +3996,7 @@
       <c r="K31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L31" s="24">
+      <c r="L31" s="21">
         <v>2</v>
       </c>
       <c r="M31" s="3">
@@ -4041,10 +4024,10 @@
       <c r="U31" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V31" s="24">
+      <c r="V31" s="21">
         <v>43</v>
       </c>
-      <c r="W31" s="24">
+      <c r="W31" s="21">
         <v>6475.1000000000013</v>
       </c>
       <c r="X31" s="8">
@@ -4052,11 +4035,11 @@
         <v>150.5837209302326</v>
       </c>
     </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="24">
+      <c r="B32" s="21">
         <v>3</v>
       </c>
       <c r="C32" s="3">
@@ -4071,7 +4054,7 @@
         <f>SUM(178.9,159.7,91.7,159.9,70,176,170.1,153.5,199.2)</f>
         <v>1359.0000000000002</v>
       </c>
-      <c r="F32" s="25">
+      <c r="F32" s="22">
         <f>SUM(136,150,168,180,120,129)</f>
         <v>883</v>
       </c>
@@ -4090,7 +4073,7 @@
       <c r="K32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="21">
         <v>3</v>
       </c>
       <c r="M32" s="3">
@@ -4102,7 +4085,7 @@
       <c r="O32" s="6">
         <v>9</v>
       </c>
-      <c r="P32" s="25">
+      <c r="P32" s="22">
         <v>6</v>
       </c>
       <c r="Q32" s="6">
@@ -4118,10 +4101,10 @@
       <c r="U32" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="V32" s="24">
+      <c r="V32" s="21">
         <v>43</v>
       </c>
-      <c r="W32" s="24">
+      <c r="W32" s="21">
         <v>5644.3</v>
       </c>
       <c r="X32" s="8">
@@ -4129,11 +4112,11 @@
         <v>131.26279069767443</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="24">
+      <c r="B33" s="21">
         <v>1</v>
       </c>
       <c r="C33" s="3">
@@ -4148,7 +4131,7 @@
         <f>SUM(73.4,68.3,124.1,122,89.3,218.4,86.6)</f>
         <v>782.1</v>
       </c>
-      <c r="F33" s="25">
+      <c r="F33" s="22">
         <f>SUM(221.1,117.6,97.6,92,123,76,80)</f>
         <v>807.3</v>
       </c>
@@ -4166,7 +4149,7 @@
       <c r="K33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L33" s="24">
+      <c r="L33" s="21">
         <v>1</v>
       </c>
       <c r="M33" s="3">
@@ -4178,7 +4161,7 @@
       <c r="O33" s="6">
         <v>7</v>
       </c>
-      <c r="P33" s="25">
+      <c r="P33" s="22">
         <v>7</v>
       </c>
       <c r="Q33" s="6">
@@ -4194,10 +4177,10 @@
       <c r="U33" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V33" s="24">
+      <c r="V33" s="21">
         <v>30</v>
       </c>
-      <c r="W33" s="24">
+      <c r="W33" s="21">
         <v>3879.0999999999995</v>
       </c>
       <c r="X33" s="8">
@@ -4205,11 +4188,11 @@
         <v>129.30333333333331</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="24">
+      <c r="B34" s="21">
         <v>2</v>
       </c>
       <c r="C34" s="3">
@@ -4224,7 +4207,7 @@
         <f>SUM(217.8,131.7,113.7,166.3,49.9,157.1,11.1,66.7)</f>
         <v>914.30000000000007</v>
       </c>
-      <c r="F34" s="25">
+      <c r="F34" s="22">
         <f>SUM(185,124,92,86,116,116,70)</f>
         <v>789</v>
       </c>
@@ -4242,7 +4225,7 @@
       <c r="K34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L34" s="24">
+      <c r="L34" s="21">
         <v>2</v>
       </c>
       <c r="M34" s="3">
@@ -4254,7 +4237,7 @@
       <c r="O34" s="6">
         <v>8</v>
       </c>
-      <c r="P34" s="25">
+      <c r="P34" s="22">
         <v>6</v>
       </c>
       <c r="Q34" s="6">
@@ -4270,10 +4253,10 @@
       <c r="U34" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V34" s="24">
+      <c r="V34" s="21">
         <v>35</v>
       </c>
-      <c r="W34" s="24">
+      <c r="W34" s="21">
         <v>4348.6000000000004</v>
       </c>
       <c r="X34" s="8">
@@ -4281,11 +4264,11 @@
         <v>124.2457142857143</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B35" s="21">
         <v>3</v>
       </c>
       <c r="C35" s="3">
@@ -4300,7 +4283,7 @@
         <f>SUM(177.7,159.7,181.3,155.9,214,87.4,54.6,216.9,116.2,106.7,126.4)</f>
         <v>1596.8000000000002</v>
       </c>
-      <c r="F35" s="25">
+      <c r="F35" s="22">
         <f>SUM(204.4,126,98,188,154,169)</f>
         <v>939.4</v>
       </c>
@@ -4317,7 +4300,7 @@
       <c r="K35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L35" s="24">
+      <c r="L35" s="21">
         <v>3</v>
       </c>
       <c r="M35" s="3">
@@ -4329,7 +4312,7 @@
       <c r="O35" s="6">
         <v>11</v>
       </c>
-      <c r="P35" s="25">
+      <c r="P35" s="22">
         <v>6</v>
       </c>
       <c r="Q35" s="6">
@@ -4345,10 +4328,10 @@
       <c r="U35" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V35" s="24">
+      <c r="V35" s="21">
         <v>30</v>
       </c>
-      <c r="W35" s="24">
+      <c r="W35" s="21">
         <v>4164.7</v>
       </c>
       <c r="X35" s="8">
@@ -4356,11 +4339,11 @@
         <v>138.82333333333332</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="21">
         <v>1</v>
       </c>
       <c r="C36" s="3">
@@ -4375,7 +4358,7 @@
         <f>SUM(125.8,142.7,187.9,125.6,116.5,163.1,149,109.6,150.5,86.8,177.3,103)</f>
         <v>1637.8</v>
       </c>
-      <c r="F36" s="25">
+      <c r="F36" s="22">
         <f>SUM(164,135,126,120,99,192)</f>
         <v>836</v>
       </c>
@@ -4392,7 +4375,7 @@
       <c r="K36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="21">
         <v>1</v>
       </c>
       <c r="M36" s="3">
@@ -4404,7 +4387,7 @@
       <c r="O36" s="6">
         <v>12</v>
       </c>
-      <c r="P36" s="25">
+      <c r="P36" s="22">
         <v>0</v>
       </c>
       <c r="Q36" s="6">
@@ -4420,10 +4403,10 @@
       <c r="U36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V36" s="24">
+      <c r="V36" s="21">
         <v>28</v>
       </c>
-      <c r="W36" s="24">
+      <c r="W36" s="21">
         <v>4488.2</v>
       </c>
       <c r="X36" s="8">
@@ -4431,11 +4414,11 @@
         <v>160.29285714285714</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B37" s="24">
+      <c r="B37" s="21">
         <v>2</v>
       </c>
       <c r="C37" s="3">
@@ -4450,7 +4433,7 @@
         <f>SUM(11.6,109.4,105.4,102,96.1,82.6,107.2,100.5,70.5,96.3,104.3)</f>
         <v>985.9</v>
       </c>
-      <c r="F37" s="25">
+      <c r="F37" s="22">
         <v>0</v>
       </c>
       <c r="G37" s="6">
@@ -4467,7 +4450,7 @@
       <c r="K37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L37" s="24">
+      <c r="L37" s="21">
         <v>2</v>
       </c>
       <c r="M37" s="3">
@@ -4479,7 +4462,7 @@
       <c r="O37" s="6">
         <v>11</v>
       </c>
-      <c r="P37" s="25">
+      <c r="P37" s="22">
         <v>8</v>
       </c>
       <c r="Q37" s="6">
@@ -4495,10 +4478,10 @@
       <c r="U37" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V37" s="24">
+      <c r="V37" s="21">
         <v>36</v>
       </c>
-      <c r="W37" s="24">
+      <c r="W37" s="21">
         <v>3018.5</v>
       </c>
       <c r="X37" s="8">
@@ -4506,11 +4489,11 @@
         <v>83.847222222222229</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="24">
+      <c r="B38" s="21">
         <v>3</v>
       </c>
       <c r="C38" s="3">
@@ -4525,7 +4508,7 @@
         <f>SUM(211.4,196.5,169.9,152,175.6,178.8,188)</f>
         <v>1272.2</v>
       </c>
-      <c r="F38" s="25">
+      <c r="F38" s="22">
         <f>SUM(223.4,202.3,143.8,86,133,101,92,120)</f>
         <v>1101.5</v>
       </c>
@@ -4543,7 +4526,7 @@
       <c r="K38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="24">
+      <c r="L38" s="21">
         <v>3</v>
       </c>
       <c r="M38" s="3">
@@ -4555,7 +4538,7 @@
       <c r="O38" s="6">
         <v>7</v>
       </c>
-      <c r="P38" s="25">
+      <c r="P38" s="22">
         <v>8</v>
       </c>
       <c r="Q38" s="6">
@@ -4571,10 +4554,10 @@
       <c r="U38" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V38" s="24">
+      <c r="V38" s="21">
         <v>29</v>
       </c>
-      <c r="W38" s="24">
+      <c r="W38" s="21">
         <v>3948.5</v>
       </c>
       <c r="X38" s="8">
@@ -4582,11 +4565,11 @@
         <v>136.15517241379311</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="24">
+      <c r="B39" s="21">
         <v>1</v>
       </c>
       <c r="C39" s="3">
@@ -4601,7 +4584,7 @@
         <f>SUM(156.5,149.2,120.4,81.5,78.3,134.8,35.9)</f>
         <v>756.6</v>
       </c>
-      <c r="F39" s="25">
+      <c r="F39" s="22">
         <f>SUM(68,53,173,141,87,92)</f>
         <v>614</v>
       </c>
@@ -4619,7 +4602,7 @@
       <c r="K39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="24">
+      <c r="L39" s="21">
         <v>1</v>
       </c>
       <c r="M39" s="3">
@@ -4631,7 +4614,7 @@
       <c r="O39" s="6">
         <v>4</v>
       </c>
-      <c r="P39" s="25">
+      <c r="P39" s="22">
         <v>6</v>
       </c>
       <c r="Q39" s="6">
@@ -4647,10 +4630,10 @@
       <c r="U39" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V39" s="24">
+      <c r="V39" s="21">
         <v>25</v>
       </c>
-      <c r="W39" s="24">
+      <c r="W39" s="21">
         <v>3025</v>
       </c>
       <c r="X39" s="8">
@@ -4658,11 +4641,11 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B40" s="24">
+      <c r="B40" s="21">
         <v>2</v>
       </c>
       <c r="C40" s="3">
@@ -4677,7 +4660,7 @@
         <f>SUM(162,156.9,164.9,168.5,131.6)</f>
         <v>783.9</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="22">
         <f>SUM(196,125,168,172,80,131)</f>
         <v>872</v>
       </c>
@@ -4695,7 +4678,7 @@
       <c r="K40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="21">
         <v>2</v>
       </c>
       <c r="M40" s="3">
@@ -4707,7 +4690,7 @@
       <c r="O40" s="6">
         <v>5</v>
       </c>
-      <c r="P40" s="25">
+      <c r="P40" s="22">
         <v>6</v>
       </c>
       <c r="Q40" s="6">
@@ -4723,10 +4706,10 @@
       <c r="U40" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V40" s="24">
+      <c r="V40" s="21">
         <v>32</v>
       </c>
-      <c r="W40" s="24">
+      <c r="W40" s="21">
         <v>4031.3999999999996</v>
       </c>
       <c r="X40" s="8">
@@ -4734,11 +4717,11 @@
         <v>125.98124999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="24">
+      <c r="B41" s="21">
         <v>3</v>
       </c>
       <c r="C41" s="3">
@@ -4753,7 +4736,7 @@
         <f>SUM(83.9,35.7,90.8,197.6,69.9,174.8,135.4,85.2)</f>
         <v>873.30000000000007</v>
       </c>
-      <c r="F41" s="25">
+      <c r="F41" s="22">
         <f>SUM(178,172,137)</f>
         <v>487</v>
       </c>
@@ -4770,7 +4753,7 @@
       <c r="K41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L41" s="24">
+      <c r="L41" s="21">
         <v>3</v>
       </c>
       <c r="M41" s="3">
@@ -4782,7 +4765,7 @@
       <c r="O41" s="6">
         <v>8</v>
       </c>
-      <c r="P41" s="25">
+      <c r="P41" s="22">
         <v>3</v>
       </c>
       <c r="Q41" s="6">
@@ -4798,10 +4781,10 @@
       <c r="U41" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V41" s="24">
+      <c r="V41" s="21">
         <v>28</v>
       </c>
-      <c r="W41" s="24">
+      <c r="W41" s="21">
         <v>3215.9</v>
       </c>
       <c r="X41" s="8">
@@ -4809,11 +4792,11 @@
         <v>114.85357142857143</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B42" s="24">
+      <c r="B42" s="21">
         <v>1</v>
       </c>
       <c r="C42" s="3">
@@ -4828,7 +4811,7 @@
         <f>SUM(139,149.3,144,155.9,114.8)</f>
         <v>703</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="22">
         <f>SUM(73,167,152,152,120,92,76)</f>
         <v>832</v>
       </c>
@@ -4845,7 +4828,7 @@
       <c r="K42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="24">
+      <c r="L42" s="21">
         <v>1</v>
       </c>
       <c r="M42" s="3">
@@ -4857,7 +4840,7 @@
       <c r="O42" s="6">
         <v>5</v>
       </c>
-      <c r="P42" s="25">
+      <c r="P42" s="22">
         <v>6</v>
       </c>
       <c r="Q42" s="6">
@@ -4873,10 +4856,10 @@
       <c r="U42" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V42" s="24">
+      <c r="V42" s="21">
         <v>28</v>
       </c>
-      <c r="W42" s="24">
+      <c r="W42" s="21">
         <v>3339.1</v>
       </c>
       <c r="X42" s="8">
@@ -4884,11 +4867,11 @@
         <v>119.25357142857142</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="24">
+      <c r="B43" s="21">
         <v>2</v>
       </c>
       <c r="C43" s="3">
@@ -4903,7 +4886,7 @@
         <f>SUM(167.9,238.3,151.3,175.1)</f>
         <v>732.6</v>
       </c>
-      <c r="F43" s="25">
+      <c r="F43" s="22">
         <f>SUM(110,75,143,74,143,86)</f>
         <v>631</v>
       </c>
@@ -4920,7 +4903,7 @@
       <c r="K43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="24">
+      <c r="L43" s="21">
         <v>2</v>
       </c>
       <c r="M43" s="3">
@@ -4932,7 +4915,7 @@
       <c r="O43" s="6">
         <v>4</v>
       </c>
-      <c r="P43" s="25">
+      <c r="P43" s="22">
         <v>6</v>
       </c>
       <c r="Q43" s="6">
@@ -4948,10 +4931,10 @@
       <c r="U43" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V43" s="24">
+      <c r="V43" s="21">
         <v>24</v>
       </c>
-      <c r="W43" s="24">
+      <c r="W43" s="21">
         <v>3124.4</v>
       </c>
       <c r="X43" s="8">
@@ -4959,11 +4942,11 @@
         <v>130.18333333333334</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B44" s="24">
+      <c r="B44" s="21">
         <v>3</v>
       </c>
       <c r="C44" s="3">
@@ -4978,7 +4961,7 @@
         <f>SUM(177.5,146.3,173.4,198.3,159.4,218.6,187.3)</f>
         <v>1260.8</v>
       </c>
-      <c r="F44" s="25">
+      <c r="F44" s="22">
         <v>0</v>
       </c>
       <c r="G44" s="3">
@@ -4995,7 +4978,7 @@
       <c r="K44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="21">
         <v>3</v>
       </c>
       <c r="M44" s="3">
@@ -5007,7 +4990,7 @@
       <c r="O44" s="6">
         <v>5</v>
       </c>
-      <c r="P44" s="25">
+      <c r="P44" s="22">
         <v>0</v>
       </c>
       <c r="Q44" s="3">
@@ -5023,10 +5006,10 @@
       <c r="U44" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V44" s="24">
+      <c r="V44" s="21">
         <v>23</v>
       </c>
-      <c r="W44" s="24">
+      <c r="W44" s="21">
         <v>3382.2</v>
       </c>
       <c r="X44" s="8">
@@ -5034,11 +5017,11 @@
         <v>147.05217391304348</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="24">
+      <c r="B45" s="21">
         <v>1</v>
       </c>
       <c r="C45" s="3">
@@ -5053,7 +5036,7 @@
         <f>SUM(182.5,162.8,85.8,85.8,173.6,134,149,159,118)</f>
         <v>1250.5</v>
       </c>
-      <c r="F45" s="25">
+      <c r="F45" s="22">
         <f>SUM(169,153,169,175,169,140)</f>
         <v>975</v>
       </c>
@@ -5070,7 +5053,7 @@
       <c r="K45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L45" s="24">
+      <c r="L45" s="21">
         <v>1</v>
       </c>
       <c r="M45" s="3">
@@ -5082,7 +5065,7 @@
       <c r="O45" s="6">
         <v>8</v>
       </c>
-      <c r="P45" s="25">
+      <c r="P45" s="22">
         <v>6</v>
       </c>
       <c r="Q45" s="6">
@@ -5098,10 +5081,10 @@
       <c r="U45" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V45" s="24">
+      <c r="V45" s="21">
         <v>31</v>
       </c>
-      <c r="W45" s="24">
+      <c r="W45" s="21">
         <v>4344.3999999999996</v>
       </c>
       <c r="X45" s="8">
@@ -5109,11 +5092,11 @@
         <v>140.14193548387095</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="24">
+      <c r="B46" s="21">
         <v>2</v>
       </c>
       <c r="C46" s="3">
@@ -5128,7 +5111,7 @@
         <f>SUM(154.8,106.6,112,125,92,192)</f>
         <v>782.4</v>
       </c>
-      <c r="F46" s="25">
+      <c r="F46" s="22">
         <f>SUM(120,82,124,124,120,82)</f>
         <v>652</v>
       </c>
@@ -5146,7 +5129,7 @@
       <c r="K46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L46" s="24">
+      <c r="L46" s="21">
         <v>2</v>
       </c>
       <c r="M46" s="3">
@@ -5158,7 +5141,7 @@
       <c r="O46" s="6">
         <v>6</v>
       </c>
-      <c r="P46" s="25">
+      <c r="P46" s="22">
         <v>6</v>
       </c>
       <c r="Q46" s="6">
@@ -5174,10 +5157,10 @@
       <c r="U46" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="V46" s="24">
+      <c r="V46" s="21">
         <v>30</v>
       </c>
-      <c r="W46" s="24">
+      <c r="W46" s="21">
         <v>3755.6</v>
       </c>
       <c r="X46" s="8">
@@ -5185,11 +5168,11 @@
         <v>125.18666666666667</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="24">
+      <c r="B47" s="21">
         <v>3</v>
       </c>
       <c r="C47" s="3">
@@ -5204,7 +5187,7 @@
         <f>SUM(152.8,170,66,68,50,187)</f>
         <v>693.8</v>
       </c>
-      <c r="F47" s="25">
+      <c r="F47" s="22">
         <f>SUM(82,122,150,84,176,116)</f>
         <v>730</v>
       </c>
@@ -5222,7 +5205,7 @@
       <c r="K47" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="L47" s="24">
+      <c r="L47" s="21">
         <v>3</v>
       </c>
       <c r="M47" s="3">
@@ -5234,7 +5217,7 @@
       <c r="O47" s="6">
         <v>6</v>
       </c>
-      <c r="P47" s="25">
+      <c r="P47" s="22">
         <v>6</v>
       </c>
       <c r="Q47" s="6">
@@ -5261,14 +5244,14 @@
         <v>111.38437500000001</v>
       </c>
     </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B48" s="24">
+      <c r="B48" s="21">
         <v>1</v>
       </c>
-      <c r="C48" s="22">
+      <c r="C48" s="19">
         <f>SUM(174.8,155.5,176.3,64.4,61.4,61.9,124.7)</f>
         <v>819</v>
       </c>
@@ -5280,7 +5263,7 @@
         <f>SUM(193.7,181.2,105.7,189.6,137.9,181.3)</f>
         <v>989.39999999999986</v>
       </c>
-      <c r="F48" s="25">
+      <c r="F48" s="22">
         <f>SUM(138.8,146.8,182,208,123,124,159)</f>
         <v>1081.5999999999999</v>
       </c>
@@ -5299,10 +5282,10 @@
       <c r="K48" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="21">
         <v>1</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="19">
         <v>6</v>
       </c>
       <c r="N48" s="6">
@@ -5311,7 +5294,7 @@
       <c r="O48" s="6">
         <v>6</v>
       </c>
-      <c r="P48" s="25">
+      <c r="P48" s="22">
         <v>7</v>
       </c>
       <c r="Q48" s="6">
@@ -5338,14 +5321,14 @@
         <v>133.13181818181818</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B49" s="24">
+      <c r="B49" s="21">
         <v>2</v>
       </c>
-      <c r="C49" s="22">
+      <c r="C49" s="19">
         <f>SUM(117.7,112.1,133,123.2,127.7)</f>
         <v>613.70000000000005</v>
       </c>
@@ -5357,7 +5340,7 @@
         <f>SUM(195.3,129.3,154.2,56,103.08,27.4)</f>
         <v>665.28</v>
       </c>
-      <c r="F49" s="25">
+      <c r="F49" s="22">
         <f>SUM(135.2,158.8,158.3,119.7,102.5,144.6)</f>
         <v>819.1</v>
       </c>
@@ -5376,10 +5359,10 @@
       <c r="K49" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L49" s="24">
+      <c r="L49" s="21">
         <v>2</v>
       </c>
-      <c r="M49" s="22">
+      <c r="M49" s="19">
         <v>5</v>
       </c>
       <c r="N49" s="6">
@@ -5388,7 +5371,7 @@
       <c r="O49" s="6">
         <v>6</v>
       </c>
-      <c r="P49" s="25">
+      <c r="P49" s="22">
         <v>6</v>
       </c>
       <c r="Q49" s="6">
@@ -5415,14 +5398,14 @@
         <v>169.70486486486487</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B50" s="24">
+      <c r="B50" s="21">
         <v>3</v>
       </c>
-      <c r="C50" s="22">
+      <c r="C50" s="19">
         <f>SUM(113,145.5,126.2,124.4,120.3,108.6,127.2)</f>
         <v>865.2</v>
       </c>
@@ -5434,7 +5417,7 @@
         <f>SUM(257.9,49.8,95.9,82.6)</f>
         <v>486.20000000000005</v>
       </c>
-      <c r="F50" s="25">
+      <c r="F50" s="22">
         <f>SUM(164.4,149,204.7,123,153,90)</f>
         <v>884.09999999999991</v>
       </c>
@@ -5453,10 +5436,10 @@
       <c r="K50" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L50" s="24">
+      <c r="L50" s="21">
         <v>3</v>
       </c>
-      <c r="M50" s="22">
+      <c r="M50" s="19">
         <v>7</v>
       </c>
       <c r="N50" s="6">
@@ -5465,7 +5448,7 @@
       <c r="O50" s="6">
         <v>4</v>
       </c>
-      <c r="P50" s="25">
+      <c r="P50" s="22">
         <v>6</v>
       </c>
       <c r="Q50" s="6">
@@ -5492,14 +5475,14 @@
         <v>135.62727272727275</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B51" s="24">
+      <c r="B51" s="21">
         <v>1</v>
       </c>
-      <c r="C51" s="22">
+      <c r="C51" s="19">
         <f>SUM(130.9,109.7,133.8,98.3,124)</f>
         <v>596.70000000000005</v>
       </c>
@@ -5511,7 +5494,7 @@
         <f>SUM(150,192.9,183.9,172.3,177.3,190.7)</f>
         <v>1067.0999999999999</v>
       </c>
-      <c r="F51" s="25">
+      <c r="F51" s="22">
         <f>SUM(96,213.3,162.9,147.1,154.9,154.5,169,199.6,149.6)</f>
         <v>1446.8999999999999</v>
       </c>
@@ -5530,10 +5513,10 @@
       <c r="K51" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L51" s="24">
+      <c r="L51" s="21">
         <v>1</v>
       </c>
-      <c r="M51" s="22">
+      <c r="M51" s="19">
         <v>5</v>
       </c>
       <c r="N51" s="6">
@@ -5542,7 +5525,7 @@
       <c r="O51" s="6">
         <v>6</v>
       </c>
-      <c r="P51" s="25">
+      <c r="P51" s="22">
         <v>9</v>
       </c>
       <c r="Q51" s="6">
@@ -5569,14 +5552,14 @@
         <v>138.45263157894735</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B52" s="24">
+      <c r="B52" s="21">
         <v>2</v>
       </c>
-      <c r="C52" s="22">
+      <c r="C52" s="19">
         <f>SUM(68.4,103.8,137.6,119,55.7)</f>
         <v>484.49999999999994</v>
       </c>
@@ -5588,7 +5571,7 @@
         <f>SUM(147.6,152.3,149.2,137.1,138.4,161.2)</f>
         <v>885.8</v>
       </c>
-      <c r="F52" s="25">
+      <c r="F52" s="22">
         <f>SUM(169,169,111,120,127)</f>
         <v>696</v>
       </c>
@@ -5607,10 +5590,10 @@
       <c r="K52" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="21">
         <v>2</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="19">
         <v>5</v>
       </c>
       <c r="N52" s="6">
@@ -5619,7 +5602,7 @@
       <c r="O52" s="6">
         <v>6</v>
       </c>
-      <c r="P52" s="25">
+      <c r="P52" s="22">
         <v>6</v>
       </c>
       <c r="Q52" s="6">
@@ -5646,14 +5629,14 @@
         <v>122.39393939393941</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="24">
+      <c r="B53" s="21">
         <v>3</v>
       </c>
-      <c r="C53" s="22">
+      <c r="C53" s="19">
         <f>SUM(123.6,128.8,110.9,118.5,143.9,127)</f>
         <v>752.7</v>
       </c>
@@ -5665,7 +5648,7 @@
         <f>SUM(124.2,82.3,156.3,127.5,127.1,142.2,81.5,72.3)</f>
         <v>913.39999999999986</v>
       </c>
-      <c r="F53" s="25">
+      <c r="F53" s="22">
         <f>SUM(82,96,56,114,57,82)</f>
         <v>487</v>
       </c>
@@ -5684,10 +5667,10 @@
       <c r="K53" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="24">
+      <c r="L53" s="21">
         <v>3</v>
       </c>
-      <c r="M53" s="22">
+      <c r="M53" s="19">
         <v>6</v>
       </c>
       <c r="N53" s="6">
@@ -5696,7 +5679,7 @@
       <c r="O53" s="6">
         <v>8</v>
       </c>
-      <c r="P53" s="25">
+      <c r="P53" s="22">
         <v>6</v>
       </c>
       <c r="Q53" s="6">
@@ -5723,14 +5706,14 @@
         <v>103.48837209302326</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B54" s="24">
+      <c r="B54" s="21">
         <v>1</v>
       </c>
-      <c r="C54" s="22">
+      <c r="C54" s="19">
         <f>SUM(119,113.3,32.5,97.2)</f>
         <v>362</v>
       </c>
@@ -5742,7 +5725,7 @@
         <f>SUM(226.5,157.2,107.3,134.2,123.7,125.1,121.8,114.13,69.3)</f>
         <v>1179.23</v>
       </c>
-      <c r="F54" s="25">
+      <c r="F54" s="22">
         <f>SUM(180.5,90,156.6,174.8,204.6,139.9)</f>
         <v>946.40000000000009</v>
       </c>
@@ -5760,10 +5743,10 @@
       <c r="K54" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="24">
+      <c r="L54" s="21">
         <v>1</v>
       </c>
-      <c r="M54" s="22">
+      <c r="M54" s="19">
         <v>4</v>
       </c>
       <c r="N54" s="6">
@@ -5772,7 +5755,7 @@
       <c r="O54" s="6">
         <v>9</v>
       </c>
-      <c r="P54" s="25">
+      <c r="P54" s="22">
         <v>6</v>
       </c>
       <c r="Q54" s="3">
@@ -5799,14 +5782,14 @@
         <v>158.08259259259262</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B55" s="24">
+      <c r="B55" s="21">
         <v>2</v>
       </c>
-      <c r="C55" s="22">
+      <c r="C55" s="19">
         <f>SUM(136.2,94.1,140.1,114.6,60.6,120.3,86.8)</f>
         <v>752.69999999999993</v>
       </c>
@@ -5818,7 +5801,7 @@
         <f>SUM(197,176.9,126,150,187.2,127.9,87.5,78,78.9,94.7,95.9)</f>
         <v>1400.0000000000002</v>
       </c>
-      <c r="F55" s="25">
+      <c r="F55" s="22">
         <f>SUM(180.9,154.6,162,193,1938.3,169)</f>
         <v>2797.8</v>
       </c>
@@ -5837,10 +5820,10 @@
       <c r="K55" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L55" s="24">
+      <c r="L55" s="21">
         <v>2</v>
       </c>
-      <c r="M55" s="22">
+      <c r="M55" s="19">
         <v>7</v>
       </c>
       <c r="N55" s="6">
@@ -5849,7 +5832,7 @@
       <c r="O55" s="6">
         <v>11</v>
       </c>
-      <c r="P55" s="25">
+      <c r="P55" s="22">
         <v>6</v>
       </c>
       <c r="Q55" s="3">
@@ -5876,14 +5859,14 @@
         <v>182.94054054054055</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B56" s="24">
+      <c r="B56" s="21">
         <v>3</v>
       </c>
-      <c r="C56" s="22">
+      <c r="C56" s="19">
         <f>SUM(130.8,117.1,126.3,152.6,140)</f>
         <v>666.8</v>
       </c>
@@ -5895,7 +5878,7 @@
         <f>SUM(110,155.9,139.2)</f>
         <v>405.09999999999997</v>
       </c>
-      <c r="F56" s="25">
+      <c r="F56" s="22">
         <f>SUM(96,117,121,105,114)</f>
         <v>553</v>
       </c>
@@ -5914,10 +5897,10 @@
       <c r="K56" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L56" s="24">
+      <c r="L56" s="21">
         <v>3</v>
       </c>
-      <c r="M56" s="22">
+      <c r="M56" s="19">
         <v>5</v>
       </c>
       <c r="N56" s="6">
@@ -5926,7 +5909,7 @@
       <c r="O56" s="6">
         <v>8</v>
       </c>
-      <c r="P56" s="25">
+      <c r="P56" s="22">
         <v>6</v>
       </c>
       <c r="Q56" s="3">
@@ -5953,14 +5936,14 @@
         <v>104.03939393939393</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B57" s="24">
+      <c r="B57" s="21">
         <v>1</v>
       </c>
-      <c r="C57" s="22">
+      <c r="C57" s="19">
         <f>SUM(120.2,18.4,122.9,40.7,111.3,127.7)</f>
         <v>541.20000000000005</v>
       </c>
@@ -5972,7 +5955,7 @@
         <f>SUM(140,166.6,184,195.5)</f>
         <v>686.1</v>
       </c>
-      <c r="F57" s="25">
+      <c r="F57" s="22">
         <f>SUM(139,177,137,133,132,88)</f>
         <v>806</v>
       </c>
@@ -5990,10 +5973,10 @@
       <c r="K57" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="24">
+      <c r="L57" s="21">
         <v>1</v>
       </c>
-      <c r="M57" s="22">
+      <c r="M57" s="19">
         <v>6</v>
       </c>
       <c r="N57" s="6">
@@ -6002,7 +5985,7 @@
       <c r="O57" s="6">
         <v>5</v>
       </c>
-      <c r="P57" s="25">
+      <c r="P57" s="22">
         <v>6</v>
       </c>
       <c r="Q57" s="6">
@@ -6029,14 +6012,14 @@
         <v>125.78086206896553</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="24">
+      <c r="B58" s="21">
         <v>2</v>
       </c>
-      <c r="C58" s="22">
+      <c r="C58" s="19">
         <f>SUM(128.9,159.2,142.9,114,149.8,105.7)</f>
         <v>800.5</v>
       </c>
@@ -6048,7 +6031,7 @@
         <f>SUM(145.2,143.2,107.1,157.6,154.3,86.5)</f>
         <v>793.90000000000009</v>
       </c>
-      <c r="F58" s="25">
+      <c r="F58" s="22">
         <f>SUM(108,76,100,97,132,162)</f>
         <v>675</v>
       </c>
@@ -6066,10 +6049,10 @@
       <c r="K58" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L58" s="24">
+      <c r="L58" s="21">
         <v>2</v>
       </c>
-      <c r="M58" s="22">
+      <c r="M58" s="19">
         <v>6</v>
       </c>
       <c r="N58" s="6">
@@ -6078,7 +6061,7 @@
       <c r="O58" s="6">
         <v>6</v>
       </c>
-      <c r="P58" s="25">
+      <c r="P58" s="22">
         <v>6</v>
       </c>
       <c r="Q58" s="6">
@@ -6105,14 +6088,14 @@
         <v>127.12222222222223</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="24">
+      <c r="B59" s="21">
         <v>3</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59" s="19">
         <f>SUM(141.1118,144.2,117.7,30,128.1)</f>
         <v>561.1117999999999</v>
       </c>
@@ -6124,7 +6107,7 @@
         <f>SUM(163.9,165,188.1,117.9,174.9,88.2)</f>
         <v>898</v>
       </c>
-      <c r="F59" s="25">
+      <c r="F59" s="22">
         <f>SUM(102,96,98,217,96,73)</f>
         <v>682</v>
       </c>
@@ -6143,10 +6126,10 @@
       <c r="K59" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L59" s="24">
+      <c r="L59" s="21">
         <v>3</v>
       </c>
-      <c r="M59" s="22">
+      <c r="M59" s="19">
         <v>6</v>
       </c>
       <c r="N59" s="6">
@@ -6155,7 +6138,7 @@
       <c r="O59" s="6">
         <v>6</v>
       </c>
-      <c r="P59" s="25">
+      <c r="P59" s="22">
         <v>6</v>
       </c>
       <c r="Q59" s="6">
@@ -6182,14 +6165,14 @@
         <v>116.05405999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="24">
+      <c r="B60" s="21">
         <v>1</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60" s="19">
         <f>SUM(149.5,153.5,183.1,94.5,153.5,88.4,105.3,135.3,35.1)</f>
         <v>1098.1999999999998</v>
       </c>
@@ -6201,7 +6184,7 @@
         <f>SUM(232.4,200.7,127,137,109,92)</f>
         <v>898.1</v>
       </c>
-      <c r="F60" s="25">
+      <c r="F60" s="22">
         <f>SUM(196.5,174.3,141.8,124,101,177)</f>
         <v>914.6</v>
       </c>
@@ -6220,10 +6203,10 @@
       <c r="K60" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L60" s="24">
+      <c r="L60" s="21">
         <v>1</v>
       </c>
-      <c r="M60" s="22">
+      <c r="M60" s="19">
         <v>9</v>
       </c>
       <c r="N60" s="6">
@@ -6232,7 +6215,7 @@
       <c r="O60" s="6">
         <v>6</v>
       </c>
-      <c r="P60" s="25">
+      <c r="P60" s="22">
         <v>6</v>
       </c>
       <c r="Q60" s="6">
@@ -6259,14 +6242,14 @@
         <v>126.78604651162789</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="24">
+      <c r="B61" s="21">
         <v>2</v>
       </c>
-      <c r="C61" s="22">
+      <c r="C61" s="19">
         <f>SUM(106.7,122,105.4,124.1,127.5,131,123.7,124.3)</f>
         <v>964.7</v>
       </c>
@@ -6278,7 +6261,7 @@
         <f>SUM(184.9,208.5,176.9,126.7,88.2,203.3,132.7,173)</f>
         <v>1294.2</v>
       </c>
-      <c r="F61" s="25">
+      <c r="F61" s="22">
         <f>SUM(102.9,130.8,176,120,86,84)</f>
         <v>699.7</v>
       </c>
@@ -6297,10 +6280,10 @@
       <c r="K61" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L61" s="24">
+      <c r="L61" s="21">
         <v>2</v>
       </c>
-      <c r="M61" s="22">
+      <c r="M61" s="19">
         <v>8</v>
       </c>
       <c r="N61" s="6">
@@ -6309,7 +6292,7 @@
       <c r="O61" s="6">
         <v>8</v>
       </c>
-      <c r="P61" s="25">
+      <c r="P61" s="22">
         <v>6</v>
       </c>
       <c r="Q61" s="6">
@@ -6336,14 +6319,14 @@
         <v>119.14146341463413</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="24">
+      <c r="B62" s="21">
         <v>3</v>
       </c>
-      <c r="C62" s="22">
+      <c r="C62" s="19">
         <f>SUM(53.3,109.7,125.2,107,105.7,119.3,119.3)</f>
         <v>739.49999999999989</v>
       </c>
@@ -6355,7 +6338,7 @@
         <f>SUM(132.5,127.3,199,131,267.3,267.3)</f>
         <v>1124.3999999999999</v>
       </c>
-      <c r="F62" s="25">
+      <c r="F62" s="22">
         <f>SUM(82,77,138,11,180,110)</f>
         <v>598</v>
       </c>
@@ -6374,10 +6357,10 @@
       <c r="K62" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L62" s="24">
+      <c r="L62" s="21">
         <v>3</v>
       </c>
-      <c r="M62" s="22">
+      <c r="M62" s="19">
         <v>7</v>
       </c>
       <c r="N62" s="6">
@@ -6386,7 +6369,7 @@
       <c r="O62" s="6">
         <v>6</v>
       </c>
-      <c r="P62" s="25">
+      <c r="P62" s="22">
         <v>6</v>
       </c>
       <c r="Q62" s="6">
@@ -6413,14 +6396,14 @@
         <v>134.43783783783783</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="24">
+      <c r="B63" s="21">
         <v>1</v>
       </c>
-      <c r="C63" s="22">
+      <c r="C63" s="19">
         <f>SUM(108.1,24.6,50,83.8,122.2)</f>
         <v>388.7</v>
       </c>
@@ -6432,7 +6415,7 @@
         <f>SUM(182.5,204.3,160.5,160.2,109.8,142.1,83.4,117.1,153)</f>
         <v>1312.8999999999999</v>
       </c>
-      <c r="F63" s="25">
+      <c r="F63" s="22">
         <f>SUM(134.5,118.5,94,101.8,143.2,160,185)</f>
         <v>937</v>
       </c>
@@ -6450,10 +6433,10 @@
       <c r="K63" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L63" s="24">
+      <c r="L63" s="21">
         <v>1</v>
       </c>
-      <c r="M63" s="22">
+      <c r="M63" s="19">
         <v>5</v>
       </c>
       <c r="N63" s="6">
@@ -6462,7 +6445,7 @@
       <c r="O63" s="6">
         <v>9</v>
       </c>
-      <c r="P63" s="25">
+      <c r="P63" s="22">
         <v>7</v>
       </c>
       <c r="Q63" s="6">
@@ -6489,14 +6472,14 @@
         <v>125.04166666666667</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B64" s="24">
+      <c r="B64" s="21">
         <v>2</v>
       </c>
-      <c r="C64" s="22">
+      <c r="C64" s="19">
         <f>SUM(148.7,131.8,145.2,131,133.9,150.6)</f>
         <v>841.2</v>
       </c>
@@ -6507,7 +6490,7 @@
         <f>SUM(200.2,194.9,64.3,193.4,54.6,212.8,144.3,109.7,172.2)</f>
         <v>1346.4</v>
       </c>
-      <c r="F64" s="25">
+      <c r="F64" s="22">
         <f>SUM(152,89,87,178,119,70)</f>
         <v>695</v>
       </c>
@@ -6526,10 +6509,10 @@
       <c r="K64" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L64" s="24">
+      <c r="L64" s="21">
         <v>2</v>
       </c>
-      <c r="M64" s="22">
+      <c r="M64" s="19">
         <v>7</v>
       </c>
       <c r="N64" s="6">
@@ -6538,7 +6521,7 @@
       <c r="O64" s="6">
         <v>9</v>
       </c>
-      <c r="P64" s="25">
+      <c r="P64" s="22">
         <v>6</v>
       </c>
       <c r="Q64" s="6">
@@ -6565,14 +6548,14 @@
         <v>120.60312500000001</v>
       </c>
     </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B65" s="24">
+      <c r="B65" s="21">
         <v>3</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="19">
         <v>0</v>
       </c>
       <c r="D65" s="6">
@@ -6582,7 +6565,7 @@
       <c r="E65" s="6">
         <v>0</v>
       </c>
-      <c r="F65" s="25">
+      <c r="F65" s="22">
         <f>SUM(134.5,118.5,94,101.8,143.2,160)</f>
         <v>752</v>
       </c>
@@ -6600,10 +6583,10 @@
       <c r="K65" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L65" s="24">
+      <c r="L65" s="21">
         <v>3</v>
       </c>
-      <c r="M65" s="22">
+      <c r="M65" s="19">
         <v>0</v>
       </c>
       <c r="N65" s="6">
@@ -6612,7 +6595,7 @@
       <c r="O65" s="6">
         <v>0</v>
       </c>
-      <c r="P65" s="25">
+      <c r="P65" s="22">
         <v>6</v>
       </c>
       <c r="Q65" s="6">
@@ -6639,14 +6622,14 @@
         <v>121.81052631578947</v>
       </c>
     </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B66" s="24">
+      <c r="B66" s="21">
         <v>1</v>
       </c>
-      <c r="C66" s="22">
+      <c r="C66" s="19">
         <f>SUM(111.1,123.6,125.4,136.6,97.2,130,145.3)</f>
         <v>869.2</v>
       </c>
@@ -6658,7 +6641,7 @@
         <f>SUM(161.5,178.6,161.2,162.6,134.7,1873.6,109)</f>
         <v>2781.2</v>
       </c>
-      <c r="F66" s="25">
+      <c r="F66" s="22">
         <f>SUM(168,156,100,13,104,107)</f>
         <v>648</v>
       </c>
@@ -6677,10 +6660,10 @@
       <c r="K66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L66" s="24">
+      <c r="L66" s="21">
         <v>1</v>
       </c>
-      <c r="M66" s="22">
+      <c r="M66" s="19">
         <v>7</v>
       </c>
       <c r="N66" s="6">
@@ -6689,7 +6672,7 @@
       <c r="O66" s="6">
         <v>7</v>
       </c>
-      <c r="P66" s="25">
+      <c r="P66" s="22">
         <v>6</v>
       </c>
       <c r="Q66" s="6">
@@ -6716,14 +6699,14 @@
         <v>165.91944444444442</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B67" s="24">
+      <c r="B67" s="21">
         <v>2</v>
       </c>
-      <c r="C67" s="22">
+      <c r="C67" s="19">
         <f>SUM(111,96.1)</f>
         <v>207.1</v>
       </c>
@@ -6735,7 +6718,7 @@
         <f>SUM(175.7,190.3,164.2,102.4,97.2,120,109,137.2)</f>
         <v>1096</v>
       </c>
-      <c r="F67" s="25">
+      <c r="F67" s="22">
         <f>SUM(99,76,103,209,153,166,136)</f>
         <v>942</v>
       </c>
@@ -6753,10 +6736,10 @@
       <c r="K67" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L67" s="24">
+      <c r="L67" s="21">
         <v>2</v>
       </c>
-      <c r="M67" s="22">
+      <c r="M67" s="19">
         <v>2</v>
       </c>
       <c r="N67" s="6">
@@ -6765,7 +6748,7 @@
       <c r="O67" s="6">
         <v>8</v>
       </c>
-      <c r="P67" s="25">
+      <c r="P67" s="22">
         <v>6</v>
       </c>
       <c r="Q67" s="6">
@@ -6792,14 +6775,14 @@
         <v>129.36931034482757</v>
       </c>
     </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="24">
+      <c r="B68" s="21">
         <v>3</v>
       </c>
-      <c r="C68" s="22">
+      <c r="C68" s="19">
         <f>SUM(118,85.6,119.7,124.9,128.3,23.1,117.7,134.2)</f>
         <v>851.5</v>
       </c>
@@ -6811,7 +6794,7 @@
         <f>SUM(120.1,195.2,197.5,178.7,205.9,122.8,173.2,219.7,159.7)</f>
         <v>1572.8</v>
       </c>
-      <c r="F68" s="25">
+      <c r="F68" s="22">
         <f>SUM(168,97,144,155,155,197)</f>
         <v>916</v>
       </c>
@@ -6829,10 +6812,10 @@
       <c r="K68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L68" s="24">
+      <c r="L68" s="21">
         <v>3</v>
       </c>
-      <c r="M68" s="22">
+      <c r="M68" s="19">
         <v>8</v>
       </c>
       <c r="N68" s="6">
@@ -6841,7 +6824,7 @@
       <c r="O68" s="6">
         <v>9</v>
       </c>
-      <c r="P68" s="25">
+      <c r="P68" s="22">
         <v>6</v>
       </c>
       <c r="Q68" s="6">
@@ -6868,14 +6851,14 @@
         <v>126.72325581395347</v>
       </c>
     </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B69" s="24">
+      <c r="B69" s="21">
         <v>1</v>
       </c>
-      <c r="C69" s="22">
+      <c r="C69" s="19">
         <f>SUM(121.9,110.8,119.9,81.5)</f>
         <v>434.1</v>
       </c>
@@ -6887,7 +6870,7 @@
         <f>SUM(175.1,164.6,112.6136,164.9,136.8,79.1,174.3)</f>
         <v>1007.4136000000001</v>
       </c>
-      <c r="F69" s="25">
+      <c r="F69" s="22">
         <f>SUM(123,87,71,148,85,183)</f>
         <v>697</v>
       </c>
@@ -6904,10 +6887,10 @@
       <c r="K69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L69" s="24">
+      <c r="L69" s="21">
         <v>1</v>
       </c>
-      <c r="M69" s="22">
+      <c r="M69" s="19">
         <v>4</v>
       </c>
       <c r="N69" s="6">
@@ -6916,7 +6899,7 @@
       <c r="O69" s="6">
         <v>8</v>
       </c>
-      <c r="P69" s="25">
+      <c r="P69" s="22">
         <v>6</v>
       </c>
       <c r="Q69" s="6">
@@ -6943,14 +6926,14 @@
         <v>120.3968</v>
       </c>
     </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B70" s="24">
+      <c r="B70" s="21">
         <v>2</v>
       </c>
-      <c r="C70" s="22">
+      <c r="C70" s="19">
         <f>SUM(126.3,123.9,109.7,125,101.7,105.9,127.5)</f>
         <v>820</v>
       </c>
@@ -6962,7 +6945,7 @@
         <f>SUM(170,185.6,170.6,187.2,180.1,171.5,134.8,136)</f>
         <v>1335.8</v>
       </c>
-      <c r="F70" s="25">
+      <c r="F70" s="22">
         <f>SUM(102,71,125,162,139,100)</f>
         <v>699</v>
       </c>
@@ -6979,10 +6962,10 @@
       <c r="K70" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L70" s="24">
+      <c r="L70" s="21">
         <v>2</v>
       </c>
-      <c r="M70" s="22">
+      <c r="M70" s="19">
         <v>7</v>
       </c>
       <c r="N70" s="6">
@@ -6991,7 +6974,7 @@
       <c r="O70" s="6">
         <v>8</v>
       </c>
-      <c r="P70" s="25">
+      <c r="P70" s="22">
         <v>6</v>
       </c>
       <c r="Q70" s="6">
@@ -7018,14 +7001,14 @@
         <v>135.78666666666666</v>
       </c>
     </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="24">
+      <c r="B71" s="21">
         <v>3</v>
       </c>
-      <c r="C71" s="22">
+      <c r="C71" s="19">
         <f>SUM(65.4,110,103.2,145.2,140.7,128.9,130.2,58.8,122.6)</f>
         <v>1004.9999999999999</v>
       </c>
@@ -7036,7 +7019,7 @@
       <c r="E71" s="6">
         <v>0</v>
       </c>
-      <c r="F71" s="25">
+      <c r="F71" s="22">
         <f>SUM(196,138,178,92,216)</f>
         <v>820</v>
       </c>
@@ -7053,10 +7036,10 @@
       <c r="K71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L71" s="24">
+      <c r="L71" s="21">
         <v>3</v>
       </c>
-      <c r="M71" s="22">
+      <c r="M71" s="19">
         <v>9</v>
       </c>
       <c r="N71" s="6">
@@ -7065,7 +7048,7 @@
       <c r="O71" s="6">
         <v>0</v>
       </c>
-      <c r="P71" s="25">
+      <c r="P71" s="22">
         <v>6</v>
       </c>
       <c r="Q71" s="6">
@@ -7092,14 +7075,14 @@
         <v>123.03478260869564</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="24">
+      <c r="B72" s="21">
         <v>1</v>
       </c>
-      <c r="C72" s="22">
+      <c r="C72" s="19">
         <f>SUM(89.6,120.4,112.5,126.4,113.4,116.1,34.7,128.4)</f>
         <v>841.5</v>
       </c>
@@ -7111,7 +7094,7 @@
         <f>SUM(165.4,165,188.1,117.4,179.9,88.2)</f>
         <v>904</v>
       </c>
-      <c r="F72" s="25">
+      <c r="F72" s="22">
         <f>SUM(123,129,70,63,89,129)</f>
         <v>603</v>
       </c>
@@ -7130,10 +7113,10 @@
       <c r="K72" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L72" s="24">
+      <c r="L72" s="21">
         <v>1</v>
       </c>
-      <c r="M72" s="22">
+      <c r="M72" s="19">
         <v>8</v>
       </c>
       <c r="N72" s="6">
@@ -7142,7 +7125,7 @@
       <c r="O72" s="6">
         <v>6</v>
       </c>
-      <c r="P72" s="25">
+      <c r="P72" s="22">
         <v>6</v>
       </c>
       <c r="Q72" s="6">
@@ -7169,14 +7152,14 @@
         <v>121.20526315789475</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="24">
+      <c r="B73" s="21">
         <v>2</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="19">
         <f>SUM(118.8,148.5,125.4,150.6,136.5,146.6,135.2,134.7)</f>
         <v>1096.3000000000002</v>
       </c>
@@ -7187,7 +7170,7 @@
       <c r="E73" s="6">
         <v>0</v>
       </c>
-      <c r="F73" s="25">
+      <c r="F73" s="22">
         <f>SUM(129,97,152,80,56,69)</f>
         <v>583</v>
       </c>
@@ -7206,10 +7189,10 @@
       <c r="K73" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L73" s="24">
+      <c r="L73" s="21">
         <v>2</v>
       </c>
-      <c r="M73" s="22">
+      <c r="M73" s="19">
         <v>8</v>
       </c>
       <c r="N73" s="6">
@@ -7218,7 +7201,7 @@
       <c r="O73" s="6">
         <v>0</v>
       </c>
-      <c r="P73" s="25">
+      <c r="P73" s="22">
         <v>6</v>
       </c>
       <c r="Q73" s="6">
@@ -7245,14 +7228,14 @@
         <v>117.9457142857143</v>
       </c>
     </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="24">
+      <c r="B74" s="21">
         <v>3</v>
       </c>
-      <c r="C74" s="22">
+      <c r="C74" s="19">
         <f>SUM(123.8,156.7,156.2,120.4,127.7,149.3)</f>
         <v>834.10000000000014</v>
       </c>
@@ -7263,7 +7246,7 @@
       <c r="E74" s="6">
         <v>0</v>
       </c>
-      <c r="F74" s="25">
+      <c r="F74" s="22">
         <f>SUM(84,137,57,60,39,33)</f>
         <v>410</v>
       </c>
@@ -7282,10 +7265,10 @@
       <c r="K74" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L74" s="24">
+      <c r="L74" s="21">
         <v>3</v>
       </c>
-      <c r="M74" s="22">
+      <c r="M74" s="19">
         <v>6</v>
       </c>
       <c r="N74" s="6">
@@ -7294,7 +7277,7 @@
       <c r="O74" s="6">
         <v>0</v>
       </c>
-      <c r="P74" s="25">
+      <c r="P74" s="22">
         <v>6</v>
       </c>
       <c r="Q74" s="6">
@@ -7321,14 +7304,14 @@
         <v>98.90862068965518</v>
       </c>
     </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="24">
+      <c r="B75" s="21">
         <v>1</v>
       </c>
-      <c r="C75" s="22">
+      <c r="C75" s="19">
         <f>SUM(157.4,118.7,124.9,71.4,122,149.6,116.6,140.3,46.2)</f>
         <v>1047.1000000000001</v>
       </c>
@@ -7340,7 +7323,7 @@
         <f>SUM(152.9,167.7,135.3,188.2,157.6,150.5,172)</f>
         <v>1124.2</v>
       </c>
-      <c r="F75" s="25">
+      <c r="F75" s="22">
         <f>SUM(123,90,82,54,99,99)</f>
         <v>547</v>
       </c>
@@ -7358,10 +7341,10 @@
       <c r="K75" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L75" s="24">
+      <c r="L75" s="21">
         <v>1</v>
       </c>
-      <c r="M75" s="22">
+      <c r="M75" s="19">
         <v>9</v>
       </c>
       <c r="N75" s="6">
@@ -7370,7 +7353,7 @@
       <c r="O75" s="6">
         <v>7</v>
       </c>
-      <c r="P75" s="25">
+      <c r="P75" s="22">
         <v>6</v>
       </c>
       <c r="Q75" s="6">
@@ -7397,14 +7380,14 @@
         <v>122.7848484848485</v>
       </c>
     </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="24">
+      <c r="B76" s="21">
         <v>2</v>
       </c>
-      <c r="C76" s="22">
+      <c r="C76" s="19">
         <f>SUM(136,166.8,150.8,75.1,130.3,90.3,161.8)</f>
         <v>911.09999999999991</v>
       </c>
@@ -7416,7 +7399,7 @@
         <f>SUM(179,186.5,179.8,1820.8,181.2,80)</f>
         <v>2627.2999999999997</v>
       </c>
-      <c r="F76" s="25">
+      <c r="F76" s="22">
         <f>SUM(125,152,167,155,174,111)</f>
         <v>884</v>
       </c>
@@ -7435,10 +7418,10 @@
       <c r="K76" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L76" s="24">
+      <c r="L76" s="21">
         <v>2</v>
       </c>
-      <c r="M76" s="22">
+      <c r="M76" s="19">
         <v>7</v>
       </c>
       <c r="N76" s="6">
@@ -7447,7 +7430,7 @@
       <c r="O76" s="6">
         <v>6</v>
       </c>
-      <c r="P76" s="25">
+      <c r="P76" s="22">
         <v>6</v>
       </c>
       <c r="Q76" s="6">
@@ -7474,14 +7457,14 @@
         <v>179.92307692307691</v>
       </c>
     </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="24">
+      <c r="B77" s="21">
         <v>3</v>
       </c>
-      <c r="C77" s="22">
+      <c r="C77" s="19">
         <f>SUM(110,122.2,129,137,150,108.7,75.9)</f>
         <v>832.80000000000007</v>
       </c>
@@ -7493,7 +7476,7 @@
         <f>SUM(198.4,187,150.5,86,151.8,102)</f>
         <v>875.7</v>
       </c>
-      <c r="F77" s="25">
+      <c r="F77" s="22">
         <f>SUM(156,158,141,159,160,115)</f>
         <v>889</v>
       </c>
@@ -7512,10 +7495,10 @@
       <c r="K77" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L77" s="24">
+      <c r="L77" s="21">
         <v>3</v>
       </c>
-      <c r="M77" s="22">
+      <c r="M77" s="19">
         <v>7</v>
       </c>
       <c r="N77" s="6">
@@ -7524,7 +7507,7 @@
       <c r="O77" s="6">
         <v>6</v>
       </c>
-      <c r="P77" s="25">
+      <c r="P77" s="22">
         <v>6</v>
       </c>
       <c r="Q77" s="6">
@@ -7570,13 +7553,13 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>11</v>
       </c>
@@ -7599,7 +7582,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45</v>
       </c>
@@ -7622,7 +7605,7 @@
         <v>2.804142387785669</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45</v>
       </c>
@@ -7645,7 +7628,7 @@
         <v>2.9706752186307193</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45</v>
       </c>
@@ -7668,7 +7651,7 @@
         <v>2.9587800164275015</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45</v>
       </c>
@@ -7691,7 +7674,7 @@
         <v>2.9587800164275015</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45</v>
       </c>
@@ -7714,7 +7697,7 @@
         <v>2.8993040054114121</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45</v>
       </c>
@@ -7737,7 +7720,7 @@
         <v>3.6130161376044834</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45</v>
       </c>
@@ -7760,7 +7743,7 @@
         <v>3.9698722037010192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45</v>
       </c>
@@ -7783,7 +7766,7 @@
         <v>3.5654353287916121</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45</v>
       </c>
@@ -7806,7 +7789,7 @@
         <v>3.5773305309948293</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45</v>
       </c>
@@ -7829,7 +7812,7 @@
         <v>3.6011209354012661</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45</v>
       </c>
@@ -7852,7 +7835,7 @@
         <v>5.3854012658839432</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45</v>
       </c>
@@ -7875,7 +7858,7 @@
         <v>4.4218898874232986</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45</v>
       </c>
@@ -7898,7 +7881,7 @@
         <v>4.7787459535198344</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45</v>
       </c>
@@ -7921,7 +7904,7 @@
         <v>5.2426588394453297</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45</v>
       </c>
@@ -7944,7 +7927,7 @@
         <v>4.7192699425037441</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45</v>
       </c>
@@ -7967,7 +7950,7 @@
         <v>4.5884227182683484</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45</v>
       </c>
@@ -7990,7 +7973,7 @@
         <v>4.5527371116586961</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45</v>
       </c>
@@ -8013,7 +7996,7 @@
         <v>4.6597939314876546</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45</v>
       </c>
@@ -8036,7 +8019,7 @@
         <v>5.3854012658839432</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45</v>
       </c>
@@ -8059,7 +8042,7 @@
         <v>5.504353287916123</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45</v>
       </c>
@@ -8082,7 +8065,7 @@
         <v>4.2791474609846825</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>45</v>
       </c>
@@ -8105,7 +8088,7 @@
         <v>3.5059593177755235</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>45</v>
       </c>
@@ -8128,7 +8111,7 @@
         <v>3.9579770014978024</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>45</v>
       </c>
@@ -8151,7 +8134,7 @@
         <v>3.5773305309948293</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>45</v>
       </c>
@@ -8174,7 +8157,7 @@
         <v>4.0412434169203264</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>60</v>
       </c>
@@ -8197,7 +8180,7 @@
         <v>3.1728936560854222</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>60</v>
       </c>
@@ -8220,7 +8203,7 @@
         <v>3.2918456781176011</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>60</v>
       </c>
@@ -8243,7 +8226,7 @@
         <v>3.0182560274435906</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>60</v>
       </c>
@@ -8266,7 +8249,7 @@
         <v>3.2442648693047298</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>60</v>
       </c>
@@ -8289,7 +8272,7 @@
         <v>2.8636183988017589</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>60</v>
       </c>
@@ -8312,7 +8295,7 @@
         <v>3.9579770014978024</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>60</v>
       </c>
@@ -8335,7 +8318,7 @@
         <v>3.8866057882784943</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>60</v>
       </c>
@@ -8358,7 +8341,7 @@
         <v>3.7081777552302264</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>60</v>
       </c>
@@ -8381,7 +8364,7 @@
         <v>4.0769290235299804</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>60</v>
       </c>
@@ -8404,7 +8387,7 @@
         <v>4.0293482147171087</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>60</v>
       </c>
@@ -8427,7 +8410,7 @@
         <v>4.4575754940329517</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>60</v>
       </c>
@@ -8450,7 +8433,7 @@
         <v>4.1007194279364167</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>60</v>
       </c>
@@ -8473,7 +8456,7 @@
         <v>4.3980994830168623</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>60</v>
       </c>
@@ -8496,7 +8479,7 @@
         <v>3.684387350823791</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>60</v>
       </c>
@@ -8519,7 +8502,7 @@
         <v>3.4464833067594332</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>60</v>
       </c>
@@ -8542,7 +8525,7 @@
         <v>4.3980994830168623</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>60</v>
       </c>
@@ -8565,7 +8548,7 @@
         <v>3.8747105860752771</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>60</v>
       </c>
@@ -8588,7 +8571,7 @@
         <v>3.3989024979465619</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>60</v>
       </c>
@@ -8611,7 +8594,7 @@
         <v>3.6130161376044834</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>60</v>
       </c>
@@ -8634,7 +8617,7 @@
         <v>3.4702737111658699</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>60</v>
       </c>
@@ -8657,7 +8640,7 @@
         <v>3.07773203845968</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>60</v>
       </c>
@@ -8680,7 +8663,7 @@
         <v>3.1253128472725509</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>60</v>
       </c>
@@ -8703,7 +8686,7 @@
         <v>3.0063608252403733</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>60</v>
       </c>
@@ -8726,7 +8709,7 @@
         <v>3.2442648693047298</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>60</v>
       </c>
@@ -8749,7 +8732,7 @@
         <v>3.0063608252403733</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>75</v>
       </c>
@@ -8772,7 +8755,7 @@
         <v>3.3156360825240365</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>75</v>
       </c>
@@ -8795,7 +8778,7 @@
         <v>3.1253128472725509</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>75</v>
       </c>
@@ -8818,7 +8801,7 @@
         <v>3.2442648693047298</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>75</v>
       </c>
@@ -8841,7 +8824,7 @@
         <v>3.2918456781176011</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>75</v>
       </c>
@@ -8864,7 +8847,7 @@
         <v>3.1134176450693332</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>75</v>
       </c>
@@ -8887,7 +8870,7 @@
         <v>2.9706752186307193</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>75</v>
       </c>
@@ -8910,7 +8893,7 @@
         <v>2.8160375899888868</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>75</v>
       </c>
@@ -8933,7 +8916,7 @@
         <v>3.2442648693047298</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>75</v>
       </c>
@@ -8956,7 +8939,7 @@
         <v>3.3989024979465619</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>75</v>
       </c>
@@ -8979,7 +8962,7 @@
         <v>3.2323696671015116</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>75</v>
       </c>
@@ -9002,7 +8985,7 @@
         <v>2.6613999613470547</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>75</v>
       </c>
@@ -9025,7 +9008,7 @@
         <v>2.8398279943953231</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>75</v>
       </c>
@@ -9048,7 +9031,7 @@
         <v>2.7922471855824518</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>75</v>
       </c>
@@ -9071,7 +9054,7 @@
         <v>3.2918456781176011</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>75</v>
       </c>
@@ -9094,7 +9077,7 @@
         <v>3.375112093540126</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>75</v>
       </c>
@@ -9117,7 +9100,7 @@
         <v>5.0285451997874073</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>75</v>
       </c>
@@ -9140,7 +9123,7 @@
         <v>4.2434618543750302</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>75</v>
       </c>
@@ -9163,7 +9146,7 @@
         <v>4.4337850896265154</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>75</v>
       </c>
@@ -9186,7 +9169,7 @@
         <v>4.4337850896265154</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>75</v>
       </c>
@@ -9209,7 +9192,7 @@
         <v>4.3148330675943365</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>75</v>
       </c>
@@ -9232,7 +9215,7 @@
         <v>3.6011209354012661</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>75</v>
       </c>
@@ -9255,7 +9238,7 @@
         <v>4.1958810455621585</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>75</v>
       </c>
@@ -9278,7 +9261,7 @@
         <v>3.4226929023529977</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>75</v>
       </c>
@@ -9301,7 +9284,7 @@
         <v>3.2442648693047298</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -9324,7 +9307,7 @@
         <v>3.4583785089626518</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>90</v>
       </c>
@@ -9347,7 +9330,7 @@
         <v>3.3156360825240365</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>90</v>
       </c>
@@ -9370,7 +9353,7 @@
         <v>3.3632168913369078</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>90</v>
       </c>
@@ -9393,7 +9376,7 @@
         <v>3.3632168913369078</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>90</v>
       </c>
@@ -9416,7 +9399,7 @@
         <v>3.5059593177755235</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>90</v>
       </c>
@@ -9439,7 +9422,7 @@
         <v>2.9111992076146298</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>90</v>
       </c>
@@ -9462,7 +9445,7 @@
         <v>2.9944656230371551</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>90</v>
       </c>
@@ -9485,7 +9468,7 @@
         <v>2.9468848142242838</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>90</v>
       </c>
@@ -9508,7 +9491,7 @@
         <v>3.0063608252403733</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>90</v>
       </c>
@@ -9531,7 +9514,7 @@
         <v>3.0063608252403733</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>90</v>
       </c>
@@ -9554,7 +9537,7 @@
         <v>2.9468848142242838</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>90</v>
       </c>
@@ -9577,7 +9560,7 @@
         <v>4.136405034546069</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>90</v>
       </c>
@@ -9600,7 +9583,7 @@
         <v>4.1126146301396336</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>90</v>
       </c>
@@ -9623,7 +9606,7 @@
         <v>4.1483002367492876</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>90</v>
       </c>
@@ -9646,7 +9629,7 @@
         <v>3.9579770014978024</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -9669,7 +9652,7 @@
         <v>3.7914441706527517</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -9692,7 +9675,7 @@
         <v>4.3148330675943365</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>90</v>
       </c>
@@ -9715,7 +9698,7 @@
         <v>4.4575754940329517</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>90</v>
       </c>
@@ -9738,7 +9721,7 @@
         <v>4.1958810455621585</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>90</v>
       </c>
@@ -9761,7 +9744,7 @@
         <v>4.3862042808136446</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>90</v>
       </c>
@@ -9784,7 +9767,7 @@
         <v>4.1601954389525053</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>90</v>
       </c>
@@ -9807,7 +9790,7 @@
         <v>3.2799504759143838</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>90</v>
       </c>
@@ -9830,7 +9813,7 @@
         <v>2.9706752186307193</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>90</v>
       </c>
@@ -9853,7 +9836,7 @@
         <v>2.9706752186307193</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>90</v>
       </c>
@@ -9876,7 +9859,7 @@
         <v>2.8755136010049762</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>90</v>
       </c>
@@ -9899,7 +9882,7 @@
         <v>3.2442648693047298</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>105</v>
       </c>
@@ -9922,7 +9905,7 @@
         <v>3.1015224428661154</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>105</v>
       </c>
@@ -9945,7 +9928,7 @@
         <v>3.0301512296468083</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>105</v>
       </c>
@@ -9968,7 +9951,7 @@
         <v>3.0658368362564623</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>105</v>
       </c>
@@ -9991,7 +9974,7 @@
         <v>2.9468848142242838</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -10014,7 +9997,7 @@
         <v>2.8993040054114121</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>105</v>
       </c>
@@ -10037,7 +10020,7 @@
         <v>3.1609984538822049</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>105</v>
       </c>
@@ -10060,7 +10043,7 @@
         <v>3.3632168913369078</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>105</v>
       </c>
@@ -10083,7 +10066,7 @@
         <v>3.1966840604918585</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>105</v>
       </c>
@@ -10106,7 +10089,7 @@
         <v>3.1491032516789863</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>105</v>
       </c>
@@ -10129,7 +10112,7 @@
         <v>3.137208049475769</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>105</v>
       </c>
@@ -10152,7 +10135,7 @@
         <v>3.0063608252403733</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>105</v>
       </c>
@@ -10175,7 +10158,7 @@
         <v>3.1728936560854222</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>105</v>
       </c>
@@ -10196,7 +10179,7 @@
         <v>3.0896272406628977</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>105</v>
       </c>
@@ -10219,7 +10202,7 @@
         <v>2.9468848142242838</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>105</v>
       </c>
@@ -10242,7 +10225,7 @@
         <v>3.1847888582886403</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>105</v>
       </c>
@@ -10265,7 +10248,7 @@
         <v>3.1609984538822049</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>105</v>
       </c>
@@ -10288,7 +10271,7 @@
         <v>3.3989024979465619</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>105</v>
       </c>
@@ -10311,7 +10294,7 @@
         <v>3.0063608252403733</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>105</v>
       </c>
@@ -10334,7 +10317,7 @@
         <v>2.9111992076146298</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>105</v>
       </c>
@@ -10357,7 +10340,7 @@
         <v>2.9706752186307193</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>105</v>
       </c>
@@ -10380,7 +10363,7 @@
         <v>3.6962825530270087</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>105</v>
       </c>
@@ -10403,7 +10386,7 @@
         <v>3.5654353287916121</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>105</v>
       </c>
@@ -10426,7 +10409,7 @@
         <v>3.3989024979465619</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>105</v>
       </c>
@@ -10449,7 +10432,7 @@
         <v>3.3394264869304724</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>105</v>
       </c>
@@ -10486,13 +10469,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>11</v>
       </c>
@@ -10533,7 +10516,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>45</v>
       </c>
@@ -10574,7 +10557,7 @@
         <v>84.535897625199965</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>45</v>
       </c>
@@ -10615,7 +10598,7 @@
         <v>38.759982773471144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>45</v>
       </c>
@@ -10656,7 +10639,7 @@
         <v>62.907739633321029</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>45</v>
       </c>
@@ -10697,7 +10680,7 @@
         <v>41.144535498954113</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>45</v>
       </c>
@@ -10738,7 +10721,7 @@
         <v>57.700969607481248</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
         <v>45</v>
       </c>
@@ -10779,7 +10762,7 @@
         <v>63.751150486034206</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
         <v>45</v>
       </c>
@@ -10820,7 +10803,7 @@
         <v>72.693855051064361</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="10">
         <v>45</v>
       </c>
@@ -10861,7 +10844,7 @@
         <v>70.027129322013053</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>45</v>
       </c>
@@ -10902,7 +10885,7 @@
         <v>74.215073212747626</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>45</v>
       </c>
@@ -10943,7 +10926,7 @@
         <v>69.299146056355355</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>45</v>
       </c>
@@ -10984,7 +10967,7 @@
         <v>36.619495508797833</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="10">
         <v>45</v>
       </c>
@@ -11025,7 +11008,7 @@
         <v>34.09349329395841</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>45</v>
       </c>
@@ -11066,7 +11049,7 @@
         <v>45.796773717238842</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>45</v>
       </c>
@@ -11107,7 +11090,7 @@
         <v>39.898363479758835</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>45</v>
       </c>
@@ -11148,7 +11131,7 @@
         <v>43.302054878799069</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>45</v>
       </c>
@@ -11189,7 +11172,7 @@
         <v>33.583462532299748</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>45</v>
       </c>
@@ -11230,7 +11213,7 @@
         <v>46.301540543866118</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>45</v>
       </c>
@@ -11271,7 +11254,7 @@
         <v>45.173791066814339</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>45</v>
       </c>
@@ -11312,7 +11295,7 @@
         <v>47.244171280915481</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>45</v>
       </c>
@@ -11353,7 +11336,7 @@
         <v>43.105889011935531</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="10">
         <v>45</v>
       </c>
@@ -11394,7 +11377,7 @@
         <v>56.617925433739373</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>45</v>
       </c>
@@ -11435,7 +11418,7 @@
         <v>47.089922480620153</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>45</v>
       </c>
@@ -11476,7 +11459,7 @@
         <v>50.160853943644639</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>45</v>
       </c>
@@ -11517,7 +11500,7 @@
         <v>42.723570813338263</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>45</v>
       </c>
@@ -11558,7 +11541,7 @@
         <v>49.892932201304291</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>60</v>
       </c>
@@ -11599,7 +11582,7 @@
         <v>39.03853574504739</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>60</v>
       </c>
@@ -11640,7 +11623,7 @@
         <v>40.972838685861944</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>60</v>
       </c>
@@ -11681,7 +11664,7 @@
         <v>46.176717115786872</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>60</v>
       </c>
@@ -11722,7 +11705,7 @@
         <v>47.550190722283759</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>60</v>
       </c>
@@ -11763,7 +11746,7 @@
         <v>47.114598252737792</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>60</v>
       </c>
@@ -11804,7 +11787,7 @@
         <v>70.841734957548923</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>60</v>
       </c>
@@ -11845,7 +11828,7 @@
         <v>79.858053402239463</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="10">
         <v>60</v>
       </c>
@@ -11886,7 +11869,7 @@
         <v>84.666605143349358</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="10">
         <v>60</v>
       </c>
@@ -11927,7 +11910,7 @@
         <v>76.130481112341599</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="10">
         <v>60</v>
       </c>
@@ -11968,7 +11951,7 @@
         <v>100.80757967269598</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="10">
         <v>60</v>
       </c>
@@ -12009,7 +11992,7 @@
         <v>302.91397317583363</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="10">
         <v>60</v>
       </c>
@@ -12050,7 +12033,7 @@
         <v>29.526432878060788</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="10">
         <v>60</v>
       </c>
@@ -12091,7 +12074,7 @@
         <v>36.28487756859851</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="10">
         <v>60</v>
       </c>
@@ -12132,7 +12115,7 @@
         <v>40.088438538205978</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="10">
         <v>60</v>
       </c>
@@ -12173,7 +12156,7 @@
         <v>38.673687215454663</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="10">
         <v>60</v>
       </c>
@@ -12214,7 +12197,7 @@
         <v>72.330121816168329</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="10">
         <v>60</v>
       </c>
@@ -12255,7 +12238,7 @@
         <v>94.175508797834382</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="10">
         <v>60</v>
       </c>
@@ -12296,7 +12279,7 @@
         <v>118.99136950904392</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="10">
         <v>60</v>
       </c>
@@ -12337,7 +12320,7 @@
         <v>86.33618801525779</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="10">
         <v>60</v>
       </c>
@@ -12378,7 +12361,7 @@
         <v>78.20870924080225</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="10">
         <v>60</v>
       </c>
@@ -12419,7 +12402,7 @@
         <v>82.360103359173138</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="10">
         <v>60</v>
       </c>
@@ -12460,7 +12443,7 @@
         <v>120.20563799680077</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" s="10">
         <v>60</v>
       </c>
@@ -12501,7 +12484,7 @@
         <v>79.20657561215701</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" s="10">
         <v>60</v>
       </c>
@@ -12542,7 +12525,7 @@
         <v>94.48710717361881</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="10">
         <v>60</v>
       </c>
@@ -12583,7 +12566,7 @@
         <v>73.833478528362264</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="10">
         <v>75</v>
       </c>
@@ -12624,7 +12607,7 @@
         <v>126.61459579180512</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="10">
         <v>75</v>
       </c>
@@ -12665,7 +12648,7 @@
         <v>122.13642918666176</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" s="10">
         <v>75</v>
       </c>
@@ -12706,7 +12689,7 @@
         <v>139.4723661867848</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" s="10">
         <v>75</v>
       </c>
@@ -12747,7 +12730,7 @@
         <v>141.06244862803007</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" s="10">
         <v>75</v>
       </c>
@@ -12788,7 +12771,7 @@
         <v>179.56679217423405</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" s="10">
         <v>75</v>
       </c>
@@ -12829,7 +12812,7 @@
         <v>78.404464131906025</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" s="10">
         <v>75</v>
       </c>
@@ -12870,7 +12853,7 @@
         <v>103.01094376768793</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="10">
         <v>75</v>
       </c>
@@ -12911,7 +12894,7 @@
         <v>239.77455395594933</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="10">
         <v>75</v>
       </c>
@@ -12952,7 +12935,7 @@
         <v>84.602803002337907</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="10">
         <v>75</v>
       </c>
@@ -12993,7 +12976,7 @@
         <v>116.47011935523564</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="10">
         <v>75</v>
       </c>
@@ -13034,7 +13017,7 @@
         <v>65.159936015749992</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="10">
         <v>75</v>
       </c>
@@ -13075,7 +13058,7 @@
         <v>67.57484434600714</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="10">
         <v>75</v>
       </c>
@@ -13116,7 +13099,7 @@
         <v>75.56583241048358</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="10">
         <v>75</v>
       </c>
@@ -13157,7 +13140,7 @@
         <v>109.51602067183464</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" s="10">
         <v>75</v>
       </c>
@@ -13198,7 +13181,7 @@
         <v>72.557263442844857</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" s="10">
         <v>75</v>
       </c>
@@ -13239,7 +13222,7 @@
         <v>109.01796480866247</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="10">
         <v>75</v>
       </c>
@@ -13280,7 +13263,7 @@
         <v>114.67952996185555</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" s="10">
         <v>75</v>
       </c>
@@ -13321,7 +13304,7 @@
         <v>117.9045035068291</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" s="10">
         <v>75</v>
       </c>
@@ -13362,7 +13345,7 @@
         <v>111.56606127722408</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" s="10">
         <v>75</v>
       </c>
@@ -13403,7 +13386,7 @@
         <v>105.47778269964317</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" s="10">
         <v>75</v>
       </c>
@@ -13444,7 +13427,7 @@
         <v>142.14291374430908</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" s="10">
         <v>75</v>
       </c>
@@ -13485,7 +13468,7 @@
         <v>128.72214593330875</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" s="10">
         <v>75</v>
       </c>
@@ -13526,7 +13509,7 @@
         <v>111.54706533776304</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" s="10">
         <v>75</v>
       </c>
@@ -13567,7 +13550,7 @@
         <v>161.4999827734712</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" s="10">
         <v>75</v>
       </c>
@@ -13608,7 +13591,7 @@
         <v>75.845421434723775</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" s="10">
         <v>90</v>
       </c>
@@ -13649,7 +13632,7 @@
         <v>86.728726467331128</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" s="10">
         <v>90</v>
       </c>
@@ -13690,7 +13673,7 @@
         <v>99.870525409130096</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="10">
         <v>90</v>
       </c>
@@ -13731,7 +13714,7 @@
         <v>98.229026701119722</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" s="10">
         <v>90</v>
       </c>
@@ -13772,7 +13755,7 @@
         <v>94.232912513842749</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" s="10">
         <v>90</v>
       </c>
@@ -13813,7 +13796,7 @@
         <v>108.13366802017966</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" s="10">
         <v>90</v>
       </c>
@@ -13854,7 +13837,7 @@
         <v>80.233763996554714</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" s="10">
         <v>90</v>
       </c>
@@ -13895,7 +13878,7 @@
         <v>101.45575489110372</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" s="10">
         <v>90</v>
       </c>
@@ -13936,7 +13919,7 @@
         <v>134.57543743078628</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" s="10">
         <v>90</v>
       </c>
@@ -13977,7 +13960,7 @@
         <v>115.07506336901686</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" s="10">
         <v>90</v>
       </c>
@@ -14018,7 +14001,7 @@
         <v>109.86891349821583</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" s="10">
         <v>90</v>
       </c>
@@ -14059,7 +14042,7 @@
         <v>38.373636028054634</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" s="10">
         <v>90</v>
       </c>
@@ -14100,7 +14083,7 @@
         <v>67.838740002460938</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" s="10">
         <v>90</v>
       </c>
@@ -14141,7 +14124,7 @@
         <v>75.229459825273793</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" s="10">
         <v>90</v>
       </c>
@@ -14182,7 +14165,7 @@
         <v>69.980462655346386</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" s="10">
         <v>90</v>
       </c>
@@ -14223,7 +14206,7 @@
         <v>57.668241663590514</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" s="10">
         <v>90</v>
       </c>
@@ -14264,7 +14247,7 @@
         <v>88.423706164636414</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" s="10">
         <v>90</v>
       </c>
@@ -14305,7 +14288,7 @@
         <v>82.292993724621653</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" s="10">
         <v>90</v>
       </c>
@@ -14346,7 +14329,7 @@
         <v>97.904525655223324</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" s="10">
         <v>90</v>
       </c>
@@ -14387,7 +14370,7 @@
         <v>85.281328903654483</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" s="10">
         <v>90</v>
       </c>
@@ -14428,7 +14411,7 @@
         <v>101.21436692506461</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" s="10">
         <v>90</v>
       </c>
@@ -14469,7 +14452,7 @@
         <v>53.066282761166484</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" s="10">
         <v>90</v>
       </c>
@@ -14510,7 +14493,7 @@
         <v>116.32794635166729</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" s="10">
         <v>90</v>
       </c>
@@ -14551,7 +14534,7 @@
         <v>82.768541897379123</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" s="10">
         <v>90</v>
       </c>
@@ -14592,7 +14575,7 @@
         <v>115.21299864648704</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" s="10">
         <v>90</v>
       </c>
@@ -14633,7 +14616,7 @@
         <v>104.6674098683401</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" s="10">
         <v>105</v>
       </c>
@@ -14674,7 +14657,7 @@
         <v>64.209767441860464</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" s="10">
         <v>105</v>
       </c>
@@ -14715,7 +14698,7 @@
         <v>84.543125384520735</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" s="10">
         <v>105</v>
       </c>
@@ -14756,7 +14739,7 @@
         <v>70.369698535745044</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" s="10">
         <v>105</v>
       </c>
@@ -14797,7 +14780,7 @@
         <v>84.947537836840169</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" s="10">
         <v>105</v>
       </c>
@@ -14838,7 +14821,7 @@
         <v>100.76473483450229</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" s="10">
         <v>105</v>
       </c>
@@ -14879,7 +14862,7 @@
         <v>55.869602559370001</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" s="10">
         <v>105</v>
       </c>
@@ -14920,7 +14903,7 @@
         <v>63.871947828226901</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" s="10">
         <v>105</v>
       </c>
@@ -14961,7 +14944,7 @@
         <v>72.698191214470299</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" s="10">
         <v>105</v>
       </c>
@@ -15002,7 +14985,7 @@
         <v>68.939645625692151</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" s="10">
         <v>105</v>
       </c>
@@ -15043,7 +15026,7 @@
         <v>72.278498831056979</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" s="10">
         <v>105</v>
       </c>
@@ -15084,7 +15067,7 @@
         <v>72.399089454903418</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" s="10">
         <v>105</v>
       </c>
@@ -15125,7 +15108,7 @@
         <v>68.073106927525544</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" s="10">
         <v>105</v>
       </c>
@@ -15166,7 +15149,7 @@
         <v>65.209801894918201</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" s="10">
         <v>105</v>
       </c>
@@ -15207,7 +15190,7 @@
         <v>64.352142241909689</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" s="10">
         <v>105</v>
       </c>
@@ -15248,7 +15231,7 @@
         <v>68.85260981912144</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" s="10">
         <v>105</v>
       </c>
@@ -15289,7 +15272,7 @@
         <v>52.27139657930357</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" s="10">
         <v>105</v>
       </c>
@@ -15330,7 +15313,7 @@
         <v>61.580312538452084</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" s="10">
         <v>105</v>
       </c>
@@ -15371,7 +15354,7 @@
         <v>66.078301956441493</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" s="10">
         <v>105</v>
       </c>
@@ -15412,7 +15395,7 @@
         <v>74.40690291620524</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" s="10">
         <v>105</v>
       </c>
@@ -15453,7 +15436,7 @@
         <v>67.918754768057084</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" s="10">
         <v>105</v>
       </c>
@@ -15494,7 +15477,7 @@
         <v>94.163428079242053</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" s="10">
         <v>105</v>
       </c>
@@ -15535,7 +15518,7 @@
         <v>129.10074566260616</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" s="10">
         <v>105</v>
       </c>
@@ -15576,7 +15559,7 @@
         <v>139.7408047249908</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" s="10">
         <v>105</v>
       </c>
@@ -15617,7 +15600,7 @@
         <v>115.0994290636151</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" s="10">
         <v>105</v>
       </c>

--- a/DATA/Data (1).xlsx
+++ b/DATA/Data (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucia\OneDrive\Documentos\ProjectTomatodata\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1A71E5-14DF-4431-93B4-24485098BABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6EE923-E53B-459D-8119-FF29DDA0278D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CB70C17-F37E-4A58-8897-3EF4BA12F333}"/>
   </bookViews>
@@ -369,6 +369,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -379,12 +385,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -703,7 +703,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -712,27 +712,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
       <c r="C2" s="4">
         <v>1</v>
       </c>
@@ -754,7 +750,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="10">
         <v>0</v>
@@ -777,7 +773,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="10">
         <v>0</v>
@@ -800,7 +796,7 @@
         <v>16</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="10">
         <v>0</v>
@@ -823,30 +819,30 @@
         <v>16</v>
       </c>
       <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0</v>
+      </c>
+      <c r="D6" s="10">
+        <v>0</v>
+      </c>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3">
         <v>5</v>
-      </c>
-      <c r="C6" s="10">
-        <v>0</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
       </c>
       <c r="C7" s="10">
         <v>0</v>
@@ -869,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" s="10">
         <v>0</v>
@@ -892,7 +888,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10">
         <v>0</v>
@@ -915,7 +911,7 @@
         <v>12</v>
       </c>
       <c r="B10" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="10">
         <v>0</v>
@@ -938,7 +934,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="10">
         <v>0</v>
@@ -958,10 +954,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C12" s="10">
         <v>0</v>
@@ -984,7 +980,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10">
         <v>0</v>
@@ -1007,7 +1003,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C14" s="10">
         <v>0</v>
@@ -1030,7 +1026,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="10">
         <v>0</v>
@@ -1053,7 +1049,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="10">
         <v>0</v>
@@ -1073,10 +1069,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C17" s="10">
         <v>7</v>
@@ -1099,7 +1095,7 @@
         <v>14</v>
       </c>
       <c r="B18" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18" s="10">
         <v>7</v>
@@ -1122,7 +1118,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="10">
         <v>0</v>
@@ -1145,7 +1141,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" s="10">
         <v>0</v>
@@ -1168,7 +1164,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C21" s="10">
         <v>0</v>
@@ -1188,10 +1184,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C22" s="10">
         <v>0</v>
@@ -1214,7 +1210,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="10">
         <v>10</v>
@@ -1237,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="7">
         <v>13.33</v>
@@ -1260,7 +1256,7 @@
         <v>15</v>
       </c>
       <c r="B25" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" s="7">
         <v>26.67</v>
@@ -1283,7 +1279,7 @@
         <v>15</v>
       </c>
       <c r="B26" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="7">
         <v>10</v>
@@ -1302,6 +1298,12 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="3">
+        <v>5</v>
+      </c>
       <c r="C27" s="7">
         <v>10</v>
       </c>
@@ -1340,34 +1342,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="K1" s="27" t="s">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="K1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="U1" s="29" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="U1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-      <c r="X1" s="29"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
       <c r="Z1" s="1" t="s">
         <v>17</v>
       </c>
